--- a/data/extracted_data/processed/fitted_model_results.xlsx
+++ b/data/extracted_data/processed/fitted_model_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="604">
   <si>
     <t>file</t>
   </si>
@@ -818,6 +818,12 @@
     <t>256</t>
   </si>
   <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
     <t>Barbosa_etal_2019_Fig1.xlsx</t>
   </si>
   <si>
@@ -914,6 +920,9 @@
     <t>Liu_etal_2008_Fig2.xlsx</t>
   </si>
   <si>
+    <t>Lund_etal_1997_Table2.xlsx</t>
+  </si>
+  <si>
     <t>Marrouchi_etal_2006_Fig6.xlsx</t>
   </si>
   <si>
@@ -1067,6 +1076,9 @@
     <t>Liu et al. 2008_Fig2</t>
   </si>
   <si>
+    <t>Lund et al. 1997_Table2</t>
+  </si>
+  <si>
     <t>Marrouchi et al. 2006_Fig6</t>
   </si>
   <si>
@@ -1590,6 +1602,12 @@
   </si>
   <si>
     <t>Mixed feed</t>
+  </si>
+  <si>
+    <t>Fed</t>
+  </si>
+  <si>
+    <t>Starved</t>
   </si>
   <si>
     <t>HPLC method</t>
@@ -1900,13 +1918,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E2" t="n">
         <v>0.18970588235294106</v>
@@ -1941,13 +1959,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E3" t="n">
         <v>0.22500000000000014</v>
@@ -1982,13 +2000,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E4" t="n">
         <v>0.5779411764705883</v>
@@ -2023,13 +2041,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E5" t="n">
         <v>0.22159090909090914</v>
@@ -2064,13 +2082,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E6" t="n">
         <v>0.24204545454545426</v>
@@ -2105,13 +2123,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E7" t="n">
         <v>0.975</v>
@@ -2146,13 +2164,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E8" t="n">
         <v>0.08000000000000013</v>
@@ -2187,13 +2205,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E9" t="n">
         <v>0.0763636363636362</v>
@@ -2228,13 +2246,13 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E10" t="n">
         <v>0.08363636363636368</v>
@@ -2269,13 +2287,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E11" t="n">
         <v>55.07121404551599</v>
@@ -2310,13 +2328,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D12" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E12" t="n">
         <v>13.240274077662827</v>
@@ -2351,13 +2369,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E13" t="n">
         <v>96.67354684835232</v>
@@ -2392,13 +2410,13 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E14" t="n">
         <v>55.75835438490887</v>
@@ -2433,13 +2451,13 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E15" t="n">
         <v>511.474870721985</v>
@@ -2474,13 +2492,13 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D16" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E16" t="n">
         <v>2.243554356252066</v>
@@ -2515,13 +2533,13 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E17" t="n">
         <v>2.454934548135189</v>
@@ -2556,13 +2574,13 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D18" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E18" t="n">
         <v>3.2739638675165916</v>
@@ -2597,13 +2615,13 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D19" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E19" t="n">
         <v>2.3506757033428514</v>
@@ -2638,13 +2656,13 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D20" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E20" t="n">
         <v>2.6107393505595105</v>
@@ -2679,13 +2697,13 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E21" t="n">
         <v>2.791970800331546</v>
@@ -2720,13 +2738,13 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D22" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E22" t="n">
         <v>2.0073172737653726</v>
@@ -2761,13 +2779,13 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D23" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E23" t="n">
         <v>2.6428352180670367</v>
@@ -2802,13 +2820,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D24" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E24" t="n">
         <v>10.443732614463904</v>
@@ -2843,13 +2861,13 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D25" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E25" t="n">
         <v>0.0632208512515816</v>
@@ -2884,13 +2902,13 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D26" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E26" t="n">
         <v>1.7801862656642307</v>
@@ -2925,13 +2943,13 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D27" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E27" t="n">
         <v>2.7543969624274784</v>
@@ -2966,13 +2984,13 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E28" t="n">
         <v>13.910837659151708</v>
@@ -3007,13 +3025,13 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E29" t="n">
         <v>0.053322345908205844</v>
@@ -3048,13 +3066,13 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D30" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E30" t="n">
         <v>0.008464238238053524</v>
@@ -3089,13 +3107,13 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E31" t="n">
         <v>0.27991440264264816</v>
@@ -3130,13 +3148,13 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D32" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E32" t="n">
         <v>10.927079978486345</v>
@@ -3171,13 +3189,13 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D33" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E33" t="n">
         <v>3.0072831009501337</v>
@@ -3212,13 +3230,13 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D34" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E34" t="n">
         <v>3.1362773900132153</v>
@@ -3253,13 +3271,13 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D35" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E35" t="n">
         <v>8.4825791576333</v>
@@ -3294,13 +3312,13 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D36" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E36" t="n">
         <v>24.366871458572373</v>
@@ -3335,13 +3353,13 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D37" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E37" t="n">
         <v>0.1874917203742701</v>
@@ -3376,13 +3394,13 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D38" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E38" t="n">
         <v>0.0536134548241257</v>
@@ -3417,13 +3435,13 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D39" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E39" t="n">
         <v>0.5544370159798641</v>
@@ -3458,13 +3476,13 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D40" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E40" t="n">
         <v>1.9609180160472008</v>
@@ -3499,13 +3517,13 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D41" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E41" t="n">
         <v>0.07450660593490076</v>
@@ -3540,13 +3558,13 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C42" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D42" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E42" t="n">
         <v>0.9821695061964208</v>
@@ -3581,13 +3599,13 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D43" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E43" t="n">
         <v>2.2074642200998045</v>
@@ -3622,13 +3640,13 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C44" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D44" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E44" t="n">
         <v>5.525155237095962</v>
@@ -3663,13 +3681,13 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C45" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D45" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E45" t="n">
         <v>0.36987384438721044</v>
@@ -3704,13 +3722,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C46" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D46" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E46" t="n">
         <v>0.001460000000000002</v>
@@ -3745,13 +3763,13 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D47" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E47" t="n">
         <v>0.23546276801199936</v>
@@ -3786,13 +3804,13 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C48" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D48" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E48" t="n">
         <v>750.1706727603499</v>
@@ -3827,13 +3845,13 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D49" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E49" t="n">
         <v>364.0199640544229</v>
@@ -3868,13 +3886,13 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D50" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E50" t="n">
         <v>88.29106876853318</v>
@@ -3909,13 +3927,13 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D51" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E51" t="n">
         <v>128.22226027079572</v>
@@ -3950,13 +3968,13 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D52" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E52" t="n">
         <v>58.68689477913242</v>
@@ -3991,13 +4009,13 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D53" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E53" t="n">
         <v>48.80253445616825</v>
@@ -4032,13 +4050,13 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C54" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D54" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E54" t="n">
         <v>206.65401720082937</v>
@@ -4073,13 +4091,13 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C55" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D55" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E55" t="n">
         <v>339.983203479717</v>
@@ -4114,13 +4132,13 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D56" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E56" t="n">
         <v>50.40707518685113</v>
@@ -4155,13 +4173,13 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C57" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D57" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E57" t="n">
         <v>57.08571951052053</v>
@@ -4196,13 +4214,13 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D58" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E58" t="n">
         <v>7.047442799311528</v>
@@ -4237,13 +4255,13 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D59" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E59" t="n">
         <v>29.61586535832167</v>
@@ -4278,13 +4296,13 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D60" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E60" t="n">
         <v>6.725614582494209</v>
@@ -4319,13 +4337,13 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D61" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E61" t="n">
         <v>70.79284936403187</v>
@@ -4360,13 +4378,13 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D62" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E62" t="n">
         <v>0.022040537490013397</v>
@@ -4401,13 +4419,13 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D63" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E63" t="n">
         <v>0.08161476873197776</v>
@@ -4442,13 +4460,13 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C64" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D64" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E64" t="n">
         <v>0.30499077739439096</v>
@@ -4483,13 +4501,13 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D65" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E65" t="n">
         <v>0.6144980277896015</v>
@@ -4524,13 +4542,13 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D66" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E66" t="n">
         <v>0.2644024469262247</v>
@@ -4565,13 +4583,13 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D67" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E67" t="n">
         <v>0.07450533767068328</v>
@@ -4606,13 +4624,13 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D68" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E68" t="n">
         <v>1.6020231503551716</v>
@@ -4647,13 +4665,13 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D69" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E69" t="n">
         <v>15.27102519061732</v>
@@ -4688,13 +4706,13 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D70" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E70" t="n">
         <v>15.26608827735386</v>
@@ -4729,13 +4747,13 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C71" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D71" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E71" t="n">
         <v>9.163638176029758</v>
@@ -4770,13 +4788,13 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C72" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D72" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E72" t="n">
         <v>258.898233573199</v>
@@ -4811,13 +4829,13 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E73" t="n">
         <v>16.475950085503555</v>
@@ -4852,13 +4870,13 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D74" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E74" t="n">
         <v>14.13113551362192</v>
@@ -4893,13 +4911,13 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C75" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D75" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E75" t="n">
         <v>14.251582315604029</v>
@@ -4934,13 +4952,13 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D76" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E76" t="n">
         <v>8.715270079051177</v>
@@ -4975,13 +4993,13 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D77" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E77" t="n">
         <v>85.58565159542034</v>
@@ -5016,13 +5034,13 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C78" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D78" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E78" t="n">
         <v>0.9233432702100216</v>
@@ -5057,13 +5075,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C79" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D79" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E79" t="n">
         <v>894.8645076002555</v>
@@ -5098,13 +5116,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D80" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E80" t="n">
         <v>48.46094234624182</v>
@@ -5139,13 +5157,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D81" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E81" t="n">
         <v>31.331248477806092</v>
@@ -5180,13 +5198,13 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C82" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D82" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E82" t="n">
         <v>162.41007194244582</v>
@@ -5221,13 +5239,13 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D83" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E83" t="n">
         <v>90.10791366906446</v>
@@ -5262,13 +5280,13 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C84" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D84" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E84" t="n">
         <v>140.2877697841719</v>
@@ -5303,13 +5321,13 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D85" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E85" t="n">
         <v>151.0791366906469</v>
@@ -5344,13 +5362,13 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D86" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E86" t="n">
         <v>302.69784172661724</v>
@@ -5385,13 +5403,13 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C87" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D87" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E87" t="n">
         <v>241.18705035971124</v>
@@ -5426,13 +5444,13 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D88" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E88" t="n">
         <v>38.709677419354755</v>
@@ -5467,13 +5485,13 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D89" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E89" t="n">
         <v>20.43010752688168</v>
@@ -5508,13 +5526,13 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D90" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E90" t="n">
         <v>49.999999999999886</v>
@@ -5549,13 +5567,13 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D91" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E91" t="n">
         <v>38.172043010752674</v>
@@ -5590,13 +5608,13 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D92" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E92" t="n">
         <v>88.70967741935465</v>
@@ -5631,13 +5649,13 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C93" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D93" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E93" t="n">
         <v>58.602150537634344</v>
@@ -5672,13 +5690,13 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D94" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E94" t="n">
         <v>31.83453237410064</v>
@@ -5713,13 +5731,13 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D95" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E95" t="n">
         <v>31.834532374100654</v>
@@ -5754,13 +5772,13 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D96" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E96" t="n">
         <v>50.17985611510784</v>
@@ -5795,13 +5813,13 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D97" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E97" t="n">
         <v>62.05035971222994</v>
@@ -5836,13 +5854,13 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C98" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D98" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E98" t="n">
         <v>82.01438848920863</v>
@@ -5877,13 +5895,13 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C99" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D99" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E99" t="n">
         <v>93.88489208633061</v>
@@ -5918,13 +5936,13 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C100" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D100" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E100" t="n">
         <v>0.36384025928115205</v>
@@ -5959,13 +5977,13 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D101" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E101" t="n">
         <v>3.462409777994132</v>
@@ -6000,13 +6018,13 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C102" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D102" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E102" t="n">
         <v>37.21133364539457</v>
@@ -6041,13 +6059,13 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C103" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D103" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E103" t="n">
         <v>3.7543681701767717</v>
@@ -6082,13 +6100,13 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C104" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D104" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E104" t="n">
         <v>1.497253780313662</v>
@@ -6123,13 +6141,13 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D105" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E105" t="n">
         <v>454.7197885548286</v>
@@ -6164,13 +6182,13 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D106" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E106" t="n">
         <v>997.7871556861255</v>
@@ -6205,13 +6223,13 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C107" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D107" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E107" t="n">
         <v>2472.3856869050005</v>
@@ -6246,13 +6264,13 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C108" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D108" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E108" t="n">
         <v>1202.624919855306</v>
@@ -6287,13 +6305,13 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C109" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D109" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E109" t="n">
         <v>3073.0638760974834</v>
@@ -6328,13 +6346,13 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C110" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D110" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E110" t="n">
         <v>12264.452474126036</v>
@@ -6369,13 +6387,13 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C111" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D111" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E111" t="n">
         <v>4129.839110007306</v>
@@ -6410,13 +6428,13 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C112" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D112" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E112" t="n">
         <v>10882.96750093436</v>
@@ -6451,13 +6469,13 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C113" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D113" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E113" t="n">
         <v>87.8978808542712</v>
@@ -6492,13 +6510,13 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C114" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D114" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E114" t="n">
         <v>74.18407325367252</v>
@@ -6533,13 +6551,13 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C115" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D115" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E115" t="n">
         <v>59.403911622319605</v>
@@ -6574,13 +6592,13 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D116" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E116" t="n">
         <v>60.763734296664055</v>
@@ -6615,13 +6633,13 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D117" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E117" t="n">
         <v>994.4779085201848</v>
@@ -6656,13 +6674,13 @@
         <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C118" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D118" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E118" t="n">
         <v>2057.0907670618576</v>
@@ -6697,13 +6715,13 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C119" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D119" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E119" t="n">
         <v>1281.6440342663877</v>
@@ -6738,13 +6756,13 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D120" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E120" t="n">
         <v>1959.41651145008</v>
@@ -6779,13 +6797,13 @@
         <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C121" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D121" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E121" t="n">
         <v>10.183587858415118</v>
@@ -6820,13 +6838,13 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D122" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E122" t="n">
         <v>6.209510340080726</v>
@@ -6861,13 +6879,13 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C123" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D123" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E123" t="n">
         <v>40.44850519444289</v>
@@ -6902,13 +6920,13 @@
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C124" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D124" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E124" t="n">
         <v>23.29320221531138</v>
@@ -6943,13 +6961,13 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C125" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D125" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E125" t="n">
         <v>117.94479849881346</v>
@@ -6984,13 +7002,13 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C126" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D126" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E126" t="n">
         <v>10.14112415607842</v>
@@ -7025,13 +7043,13 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C127" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D127" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E127" t="n">
         <v>138.97417517230292</v>
@@ -7066,13 +7084,13 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C128" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D128" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E128" t="n">
         <v>141.16240947184355</v>
@@ -7107,13 +7125,13 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C129" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D129" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E129" t="n">
         <v>50.91765121164889</v>
@@ -7148,13 +7166,13 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C130" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D130" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E130" t="n">
         <v>97.91481545445886</v>
@@ -7189,13 +7207,13 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C131" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D131" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E131" t="n">
         <v>1727.2701297270944</v>
@@ -7230,13 +7248,13 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C132" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D132" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E132" t="n">
         <v>51.79474679231192</v>
@@ -7271,13 +7289,13 @@
         <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C133" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D133" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E133" t="n">
         <v>6373.057341948976</v>
@@ -7312,13 +7330,13 @@
         <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D134" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E134" t="n">
         <v>147.78925406905103</v>
@@ -7353,13 +7371,13 @@
         <v>145</v>
       </c>
       <c r="B135" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C135" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D135" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E135" t="n">
         <v>0.36773828459497576</v>
@@ -7394,13 +7412,13 @@
         <v>146</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D136" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E136" t="n">
         <v>5.035332414554808</v>
@@ -7435,13 +7453,13 @@
         <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C137" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D137" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E137" t="n">
         <v>940.257537011954</v>
@@ -7476,13 +7494,13 @@
         <v>148</v>
       </c>
       <c r="B138" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C138" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D138" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E138" t="n">
         <v>152.81136494957897</v>
@@ -7517,13 +7535,13 @@
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D139" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E139" t="n">
         <v>476.7368775004106</v>
@@ -7558,13 +7576,13 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C140" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D140" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E140" t="n">
         <v>49.1475864806295</v>
@@ -7599,13 +7617,13 @@
         <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D141" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E141" t="n">
         <v>0.003054935062779645</v>
@@ -7640,13 +7658,13 @@
         <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C142" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D142" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E142" t="n">
         <v>0.012446880488092942</v>
@@ -7681,13 +7699,13 @@
         <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D143" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E143" t="n">
         <v>0.026483444962953732</v>
@@ -7722,13 +7740,13 @@
         <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C144" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D144" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E144" t="n">
         <v>0.03139494275627534</v>
@@ -7763,13 +7781,13 @@
         <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C145" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D145" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E145" t="n">
         <v>0.005891751744346538</v>
@@ -7804,13 +7822,13 @@
         <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D146" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E146" t="n">
         <v>0.010187272720248058</v>
@@ -7845,13 +7863,13 @@
         <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D147" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E147" t="n">
         <v>0.028543793334693545</v>
@@ -7886,13 +7904,13 @@
         <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C148" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D148" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E148" t="n">
         <v>0.03620949691591571</v>
@@ -7927,13 +7945,13 @@
         <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D149" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E149" t="n">
         <v>2.614046319626089E-4</v>
@@ -7968,13 +7986,13 @@
         <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D150" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E150" t="n">
         <v>0.0040678312826179334</v>
@@ -8009,13 +8027,13 @@
         <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C151" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D151" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E151" t="n">
         <v>0.024236872211398256</v>
@@ -8050,13 +8068,13 @@
         <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C152" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D152" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E152" t="n">
         <v>0.022978362243246276</v>
@@ -8091,13 +8109,13 @@
         <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C153" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D153" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E153" t="n">
         <v>0.00703937944051767</v>
@@ -8132,13 +8150,13 @@
         <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C154" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D154" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E154" t="n">
         <v>0.0021306282970719533</v>
@@ -8173,13 +8191,13 @@
         <v>165</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C155" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D155" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E155" t="n">
         <v>0.014960752606992119</v>
@@ -8214,13 +8232,13 @@
         <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C156" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D156" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E156" t="n">
         <v>0.03759387968547092</v>
@@ -8255,13 +8273,13 @@
         <v>167</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C157" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D157" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E157" t="n">
         <v>9.92469871002499</v>
@@ -8296,13 +8314,13 @@
         <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C158" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D158" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E158" t="n">
         <v>35.35979880232532</v>
@@ -8337,13 +8355,13 @@
         <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C159" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D159" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E159" t="n">
         <v>197.13576598236205</v>
@@ -8378,13 +8396,13 @@
         <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C160" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D160" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E160" t="n">
         <v>278.9755719561188</v>
@@ -8419,13 +8437,13 @@
         <v>171</v>
       </c>
       <c r="B161" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C161" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D161" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E161" t="n">
         <v>989.5665440603542</v>
@@ -8460,13 +8478,13 @@
         <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C162" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D162" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E162" t="n">
         <v>607.617246795367</v>
@@ -8501,13 +8519,13 @@
         <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C163" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D163" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E163" t="n">
         <v>29.073687824958842</v>
@@ -8542,13 +8560,13 @@
         <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C164" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D164" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E164" t="n">
         <v>9316.730605643032</v>
@@ -8583,13 +8601,13 @@
         <v>175</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C165" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D165" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E165" t="n">
         <v>43.638033133830106</v>
@@ -8624,13 +8642,13 @@
         <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C166" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D166" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E166" t="n">
         <v>398.7733310331347</v>
@@ -8665,13 +8683,13 @@
         <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C167" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D167" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E167" t="n">
         <v>7092.890840487342</v>
@@ -8706,13 +8724,13 @@
         <v>178</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C168" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D168" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E168" t="n">
         <v>861.9642491994005</v>
@@ -8747,13 +8765,13 @@
         <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C169" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D169" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E169" t="n">
         <v>258.65775810334515</v>
@@ -8788,13 +8806,13 @@
         <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C170" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D170" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E170" t="n">
         <v>2502.5343607911914</v>
@@ -8829,13 +8847,13 @@
         <v>181</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C171" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D171" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E171" t="n">
         <v>1.2597487518224304</v>
@@ -8870,13 +8888,13 @@
         <v>182</v>
       </c>
       <c r="B172" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C172" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D172" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E172" t="n">
         <v>335.54029552995615</v>
@@ -8911,13 +8929,13 @@
         <v>183</v>
       </c>
       <c r="B173" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C173" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D173" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E173" t="n">
         <v>475.7331392182894</v>
@@ -8952,13 +8970,13 @@
         <v>184</v>
       </c>
       <c r="B174" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C174" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D174" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E174" t="n">
         <v>320.31652612432447</v>
@@ -8993,13 +9011,13 @@
         <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C175" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D175" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E175" t="n">
         <v>11.244462257849348</v>
@@ -9034,40 +9052,40 @@
         <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C176" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D176" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E176" t="n">
-        <v>148.26401718720456</v>
+        <v>76.4360219348471</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.07043045938013916</v>
+        <v>-0.11183186885284437</v>
       </c>
       <c r="G176" t="n">
-        <v>0.7687967908592124</v>
+        <v>0.9897779281470271</v>
       </c>
       <c r="H176" t="n">
-        <v>0.7357677609819571</v>
+        <v>0.9846668922205407</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0019113917936938842</v>
+        <v>0.005124164457178545</v>
       </c>
       <c r="J176" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="K176" t="n">
         <v>1.0</v>
       </c>
       <c r="L176" t="n">
-        <v>-3.5621454777829316</v>
+        <v>4.175754695624692</v>
       </c>
       <c r="M176" t="n">
-        <v>13.124290955565863</v>
+        <v>-2.351509391249383</v>
       </c>
     </row>
     <row r="177">
@@ -9075,40 +9093,40 @@
         <v>187</v>
       </c>
       <c r="B177" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C177" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D177" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E177" t="n">
-        <v>33.3837580354138</v>
+        <v>77.83065057376994</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.042750483974401045</v>
+        <v>-0.042986245660493284</v>
       </c>
       <c r="G177" t="n">
-        <v>0.8174977098313563</v>
+        <v>0.8981669118966005</v>
       </c>
       <c r="H177" t="n">
-        <v>0.7914259540929787</v>
+        <v>0.8472503678449007</v>
       </c>
       <c r="I177" t="n">
-        <v>8.162799719503987E-4</v>
+        <v>0.0522833166517535</v>
       </c>
       <c r="J177" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="K177" t="n">
         <v>1.0</v>
       </c>
       <c r="L177" t="n">
-        <v>2.271863065435163</v>
+        <v>3.2083992538867396</v>
       </c>
       <c r="M177" t="n">
-        <v>1.4562738691296744</v>
+        <v>-0.41679850777347927</v>
       </c>
     </row>
     <row r="178">
@@ -9116,40 +9134,40 @@
         <v>188</v>
       </c>
       <c r="B178" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C178" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D178" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E178" t="n">
-        <v>1093.575615426939</v>
+        <v>148.26401718720456</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.0438137273180113</v>
+        <v>-0.07043045938013916</v>
       </c>
       <c r="G178" t="n">
-        <v>0.7773587952972689</v>
+        <v>0.7687967908592124</v>
       </c>
       <c r="H178" t="n">
-        <v>0.6660381929459034</v>
+        <v>0.7357677609819571</v>
       </c>
       <c r="I178" t="n">
-        <v>0.11832046904940055</v>
+        <v>0.0019113917936938842</v>
       </c>
       <c r="J178" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="K178" t="n">
         <v>1.0</v>
       </c>
       <c r="L178" t="n">
-        <v>2.3318126468401874</v>
+        <v>-3.5621454777829316</v>
       </c>
       <c r="M178" t="n">
-        <v>1.3363747063196252</v>
+        <v>13.124290955565863</v>
       </c>
     </row>
     <row r="179">
@@ -9157,40 +9175,40 @@
         <v>189</v>
       </c>
       <c r="B179" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C179" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D179" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E179" t="n">
-        <v>3040.624176008503</v>
+        <v>33.3837580354138</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.11589076344065324</v>
+        <v>-0.042750483974401045</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9012661319736698</v>
+        <v>0.8174977098313563</v>
       </c>
       <c r="H179" t="n">
-        <v>0.8518991979605046</v>
+        <v>0.7914259540929787</v>
       </c>
       <c r="I179" t="n">
-        <v>0.050649626337214884</v>
+        <v>8.162799719503987E-4</v>
       </c>
       <c r="J179" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="K179" t="n">
         <v>1.0</v>
       </c>
       <c r="L179" t="n">
-        <v>0.36307329191198967</v>
+        <v>2.271863065435163</v>
       </c>
       <c r="M179" t="n">
-        <v>5.273853416176021</v>
+        <v>1.4562738691296744</v>
       </c>
     </row>
     <row r="180">
@@ -9198,28 +9216,28 @@
         <v>190</v>
       </c>
       <c r="B180" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C180" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D180" t="s">
-        <v>379</v>
+        <v>534</v>
       </c>
       <c r="E180" t="n">
-        <v>4048.556621119065</v>
+        <v>1093.575615426939</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.08686463953175064</v>
+        <v>-0.0438137273180113</v>
       </c>
       <c r="G180" t="n">
-        <v>0.8944471251152686</v>
+        <v>0.7773587952972689</v>
       </c>
       <c r="H180" t="n">
-        <v>0.8416706876729029</v>
+        <v>0.6660381929459034</v>
       </c>
       <c r="I180" t="n">
-        <v>0.054247852175175554</v>
+        <v>0.11832046904940055</v>
       </c>
       <c r="J180" t="n">
         <v>4.0</v>
@@ -9228,10 +9246,10 @@
         <v>1.0</v>
       </c>
       <c r="L180" t="n">
-        <v>1.3675037847427656</v>
+        <v>2.3318126468401874</v>
       </c>
       <c r="M180" t="n">
-        <v>3.264992430514469</v>
+        <v>1.3363747063196252</v>
       </c>
     </row>
     <row r="181">
@@ -9239,40 +9257,40 @@
         <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C181" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D181" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="E181" t="n">
-        <v>2.3501300297199426</v>
+        <v>3040.624176008503</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.148134875034388</v>
+        <v>-0.11589076344065324</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02218927645658361</v>
+        <v>0.9012661319736698</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.9556214470868327</v>
+        <v>0.8518991979605046</v>
       </c>
       <c r="I181" t="n">
-        <v>0.9048144471840576</v>
+        <v>0.050649626337214884</v>
       </c>
       <c r="J181" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K181" t="n">
         <v>1.0</v>
       </c>
       <c r="L181" t="n">
-        <v>-1.5188405696478737</v>
+        <v>0.36307329191198967</v>
       </c>
       <c r="M181" t="n">
-        <v>9.037681139295747</v>
+        <v>5.273853416176021</v>
       </c>
     </row>
     <row r="182">
@@ -9280,40 +9298,40 @@
         <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C182" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D182" t="s">
-        <v>529</v>
+        <v>383</v>
       </c>
       <c r="E182" t="n">
-        <v>12.980633575027396</v>
+        <v>4048.556621119065</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.645212181795379</v>
+        <v>-0.08686463953175064</v>
       </c>
       <c r="G182" t="n">
-        <v>0.48594400340059457</v>
+        <v>0.8944471251152686</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.028111993198810747</v>
+        <v>0.8416706876729029</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5089495043948276</v>
+        <v>0.054247852175175554</v>
       </c>
       <c r="J182" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K182" t="n">
         <v>1.0</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.33900644559371174</v>
+        <v>1.3675037847427656</v>
       </c>
       <c r="M182" t="n">
-        <v>6.678012891187423</v>
+        <v>3.264992430514469</v>
       </c>
     </row>
     <row r="183">
@@ -9321,28 +9339,28 @@
         <v>193</v>
       </c>
       <c r="B183" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C183" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D183" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E183" t="n">
-        <v>74.38559464641801</v>
+        <v>2.3501300297199426</v>
       </c>
       <c r="F183" t="n">
-        <v>-1.6008473436310982</v>
+        <v>-0.148134875034388</v>
       </c>
       <c r="G183" t="n">
-        <v>0.927998558392473</v>
+        <v>0.02218927645658361</v>
       </c>
       <c r="H183" t="n">
-        <v>0.855997116784946</v>
+        <v>-0.9556214470868327</v>
       </c>
       <c r="I183" t="n">
-        <v>0.17294407146886887</v>
+        <v>0.9048144471840576</v>
       </c>
       <c r="J183" t="n">
         <v>3.0</v>
@@ -9351,10 +9369,10 @@
         <v>1.0</v>
       </c>
       <c r="L183" t="n">
-        <v>0.8537404250114146</v>
+        <v>-1.5188405696478737</v>
       </c>
       <c r="M183" t="n">
-        <v>4.292519149977171</v>
+        <v>9.037681139295747</v>
       </c>
     </row>
     <row r="184">
@@ -9362,28 +9380,28 @@
         <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C184" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D184" t="s">
-        <v>379</v>
+        <v>535</v>
       </c>
       <c r="E184" t="n">
-        <v>93.61772696419492</v>
+        <v>12.980633575027396</v>
       </c>
       <c r="F184" t="n">
-        <v>-1.3886994028865782</v>
+        <v>-0.645212181795379</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9918086932220379</v>
+        <v>0.48594400340059457</v>
       </c>
       <c r="H184" t="n">
-        <v>0.9836173864440758</v>
+        <v>-0.028111993198810747</v>
       </c>
       <c r="I184" t="n">
-        <v>0.05769675844413053</v>
+        <v>0.5089495043948276</v>
       </c>
       <c r="J184" t="n">
         <v>3.0</v>
@@ -9392,10 +9410,10 @@
         <v>1.0</v>
       </c>
       <c r="L184" t="n">
-        <v>4.64040591533926</v>
+        <v>-0.33900644559371174</v>
       </c>
       <c r="M184" t="n">
-        <v>-3.2808118306785197</v>
+        <v>6.678012891187423</v>
       </c>
     </row>
     <row r="185">
@@ -9403,40 +9421,40 @@
         <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C185" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E185" t="n">
-        <v>341.00765732105015</v>
+        <v>74.38559464641801</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.36989499232070355</v>
+        <v>-1.6008473436310982</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9593866244723865</v>
+        <v>0.927998558392473</v>
       </c>
       <c r="H185" t="n">
-        <v>0.9390799367085798</v>
+        <v>0.855997116784946</v>
       </c>
       <c r="I185" t="n">
-        <v>0.020517164789302433</v>
+        <v>0.17294407146886887</v>
       </c>
       <c r="J185" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K185" t="n">
         <v>1.0</v>
       </c>
       <c r="L185" t="n">
-        <v>0.596977675889308</v>
+        <v>0.8537404250114146</v>
       </c>
       <c r="M185" t="n">
-        <v>4.806044648221384</v>
+        <v>4.292519149977171</v>
       </c>
     </row>
     <row r="186">
@@ -9444,40 +9462,40 @@
         <v>196</v>
       </c>
       <c r="B186" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C186" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D186" t="s">
-        <v>532</v>
+        <v>383</v>
       </c>
       <c r="E186" t="n">
-        <v>379.41855251754606</v>
+        <v>93.61772696419492</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.2647857199802575</v>
+        <v>-1.3886994028865782</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8160198082523472</v>
+        <v>0.9918086932220379</v>
       </c>
       <c r="H186" t="n">
-        <v>0.7240297123785209</v>
+        <v>0.9836173864440758</v>
       </c>
       <c r="I186" t="n">
-        <v>0.09666185276368007</v>
+        <v>0.05769675844413053</v>
       </c>
       <c r="J186" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K186" t="n">
         <v>1.0</v>
       </c>
       <c r="L186" t="n">
-        <v>-1.4110015757015564</v>
+        <v>4.64040591533926</v>
       </c>
       <c r="M186" t="n">
-        <v>8.822003151403113</v>
+        <v>-3.2808118306785197</v>
       </c>
     </row>
     <row r="187">
@@ -9485,28 +9503,28 @@
         <v>197</v>
       </c>
       <c r="B187" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C187" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D187" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E187" t="n">
-        <v>105.34309711893562</v>
+        <v>341.00765732105015</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.35170960630446224</v>
+        <v>-0.36989499232070355</v>
       </c>
       <c r="G187" t="n">
-        <v>0.9707012981416706</v>
+        <v>0.9593866244723865</v>
       </c>
       <c r="H187" t="n">
-        <v>0.956051947212506</v>
+        <v>0.9390799367085798</v>
       </c>
       <c r="I187" t="n">
-        <v>0.014758253959125715</v>
+        <v>0.020517164789302433</v>
       </c>
       <c r="J187" t="n">
         <v>4.0</v>
@@ -9515,10 +9533,10 @@
         <v>1.0</v>
       </c>
       <c r="L187" t="n">
-        <v>1.475188706286405</v>
+        <v>0.596977675889308</v>
       </c>
       <c r="M187" t="n">
-        <v>3.04962258742719</v>
+        <v>4.806044648221384</v>
       </c>
     </row>
     <row r="188">
@@ -9526,28 +9544,28 @@
         <v>198</v>
       </c>
       <c r="B188" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C188" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D188" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E188" t="n">
-        <v>110.15269500611234</v>
+        <v>379.41855251754606</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.24409785592196953</v>
+        <v>-0.2647857199802575</v>
       </c>
       <c r="G188" t="n">
-        <v>0.8764194781052023</v>
+        <v>0.8160198082523472</v>
       </c>
       <c r="H188" t="n">
-        <v>0.8146292171578033</v>
+        <v>0.7240297123785209</v>
       </c>
       <c r="I188" t="n">
-        <v>0.06382721781435977</v>
+        <v>0.09666185276368007</v>
       </c>
       <c r="J188" t="n">
         <v>4.0</v>
@@ -9556,10 +9574,10 @@
         <v>1.0</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.1469120532978181</v>
+        <v>-1.4110015757015564</v>
       </c>
       <c r="M188" t="n">
-        <v>6.293824106595636</v>
+        <v>8.822003151403113</v>
       </c>
     </row>
     <row r="189">
@@ -9567,28 +9585,28 @@
         <v>199</v>
       </c>
       <c r="B189" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C189" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D189" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E189" t="n">
-        <v>24.120565773575503</v>
+        <v>105.34309711893562</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.18073769653456076</v>
+        <v>-0.35170960630446224</v>
       </c>
       <c r="G189" t="n">
-        <v>0.8880176988814631</v>
+        <v>0.9707012981416706</v>
       </c>
       <c r="H189" t="n">
-        <v>0.8320265483221947</v>
+        <v>0.956051947212506</v>
       </c>
       <c r="I189" t="n">
-        <v>0.057653089949639066</v>
+        <v>0.014758253959125715</v>
       </c>
       <c r="J189" t="n">
         <v>4.0</v>
@@ -9597,10 +9615,10 @@
         <v>1.0</v>
       </c>
       <c r="L189" t="n">
-        <v>1.278575464769364</v>
+        <v>1.475188706286405</v>
       </c>
       <c r="M189" t="n">
-        <v>3.442849070461272</v>
+        <v>3.04962258742719</v>
       </c>
     </row>
     <row r="190">
@@ -9608,28 +9626,28 @@
         <v>200</v>
       </c>
       <c r="B190" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C190" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D190" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E190" t="n">
-        <v>27.122218808990347</v>
+        <v>110.15269500611234</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.18661816728846267</v>
+        <v>-0.24409785592196953</v>
       </c>
       <c r="G190" t="n">
-        <v>0.9446952463057353</v>
+        <v>0.8764194781052023</v>
       </c>
       <c r="H190" t="n">
-        <v>0.917042869458603</v>
+        <v>0.8146292171578033</v>
       </c>
       <c r="I190" t="n">
-        <v>0.02804565626479383</v>
+        <v>0.06382721781435977</v>
       </c>
       <c r="J190" t="n">
         <v>4.0</v>
@@ -9638,10 +9656,10 @@
         <v>1.0</v>
       </c>
       <c r="L190" t="n">
-        <v>2.685209405295948</v>
+        <v>-0.1469120532978181</v>
       </c>
       <c r="M190" t="n">
-        <v>0.6295811894081043</v>
+        <v>6.293824106595636</v>
       </c>
     </row>
     <row r="191">
@@ -9649,28 +9667,28 @@
         <v>201</v>
       </c>
       <c r="B191" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C191" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D191" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E191" t="n">
-        <v>57.219391648044315</v>
+        <v>24.120565773575503</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.16950599368572705</v>
+        <v>-0.18073769653456076</v>
       </c>
       <c r="G191" t="n">
-        <v>0.7905651466251961</v>
+        <v>0.8880176988814631</v>
       </c>
       <c r="H191" t="n">
-        <v>0.6858477199377941</v>
+        <v>0.8320265483221947</v>
       </c>
       <c r="I191" t="n">
-        <v>0.11086269529099382</v>
+        <v>0.057653089949639066</v>
       </c>
       <c r="J191" t="n">
         <v>4.0</v>
@@ -9679,10 +9697,10 @@
         <v>1.0</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05057846650311193</v>
+        <v>1.278575464769364</v>
       </c>
       <c r="M191" t="n">
-        <v>5.898843066993776</v>
+        <v>3.442849070461272</v>
       </c>
     </row>
     <row r="192">
@@ -9690,28 +9708,28 @@
         <v>202</v>
       </c>
       <c r="B192" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C192" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D192" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E192" t="n">
-        <v>57.090919135435136</v>
+        <v>27.122218808990347</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.19044568063932016</v>
+        <v>-0.18661816728846267</v>
       </c>
       <c r="G192" t="n">
-        <v>0.84366716797751</v>
+        <v>0.9446952463057353</v>
       </c>
       <c r="H192" t="n">
-        <v>0.7655007519662649</v>
+        <v>0.917042869458603</v>
       </c>
       <c r="I192" t="n">
-        <v>0.08148643560505323</v>
+        <v>0.02804565626479383</v>
       </c>
       <c r="J192" t="n">
         <v>4.0</v>
@@ -9720,10 +9738,10 @@
         <v>1.0</v>
       </c>
       <c r="L192" t="n">
-        <v>0.29953447637947894</v>
+        <v>2.685209405295948</v>
       </c>
       <c r="M192" t="n">
-        <v>5.400931047241042</v>
+        <v>0.6295811894081043</v>
       </c>
     </row>
     <row r="193">
@@ -9731,28 +9749,28 @@
         <v>203</v>
       </c>
       <c r="B193" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C193" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D193" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E193" t="n">
-        <v>25.536314843999154</v>
+        <v>57.219391648044315</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.10393511767148625</v>
+        <v>-0.16950599368572705</v>
       </c>
       <c r="G193" t="n">
-        <v>0.8764186829312646</v>
+        <v>0.7905651466251961</v>
       </c>
       <c r="H193" t="n">
-        <v>0.8146280243968969</v>
+        <v>0.6858477199377941</v>
       </c>
       <c r="I193" t="n">
-        <v>0.06382764250846167</v>
+        <v>0.11086269529099382</v>
       </c>
       <c r="J193" t="n">
         <v>4.0</v>
@@ -9761,10 +9779,10 @@
         <v>1.0</v>
       </c>
       <c r="L193" t="n">
-        <v>3.268282694602355</v>
+        <v>0.05057846650311193</v>
       </c>
       <c r="M193" t="n">
-        <v>-0.5365653892047098</v>
+        <v>5.898843066993776</v>
       </c>
     </row>
     <row r="194">
@@ -9772,28 +9790,28 @@
         <v>204</v>
       </c>
       <c r="B194" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C194" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D194" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E194" t="n">
-        <v>24.980002840282374</v>
+        <v>57.090919135435136</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.11002266620631534</v>
+        <v>-0.19044568063932016</v>
       </c>
       <c r="G194" t="n">
-        <v>0.8470491731489119</v>
+        <v>0.84366716797751</v>
       </c>
       <c r="H194" t="n">
-        <v>0.770573759723368</v>
+        <v>0.7655007519662649</v>
       </c>
       <c r="I194" t="n">
-        <v>0.07964725613006841</v>
+        <v>0.08148643560505323</v>
       </c>
       <c r="J194" t="n">
         <v>4.0</v>
@@ -9802,10 +9820,10 @@
         <v>1.0</v>
       </c>
       <c r="L194" t="n">
-        <v>2.5459998821347294</v>
+        <v>0.29953447637947894</v>
       </c>
       <c r="M194" t="n">
-        <v>0.9080002357305412</v>
+        <v>5.400931047241042</v>
       </c>
     </row>
     <row r="195">
@@ -9813,28 +9831,28 @@
         <v>205</v>
       </c>
       <c r="B195" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C195" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D195" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E195" t="n">
-        <v>10.485914294482063</v>
+        <v>25.536314843999154</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.02453302638083764</v>
+        <v>-0.10393511767148625</v>
       </c>
       <c r="G195" t="n">
-        <v>0.6717020077722912</v>
+        <v>0.8764186829312646</v>
       </c>
       <c r="H195" t="n">
-        <v>0.5075530116584368</v>
+        <v>0.8146280243968969</v>
       </c>
       <c r="I195" t="n">
-        <v>0.18042571552525435</v>
+        <v>0.06382764250846167</v>
       </c>
       <c r="J195" t="n">
         <v>4.0</v>
@@ -9843,10 +9861,10 @@
         <v>1.0</v>
       </c>
       <c r="L195" t="n">
-        <v>6.557166225741472</v>
+        <v>3.268282694602355</v>
       </c>
       <c r="M195" t="n">
-        <v>-7.1143324514829445</v>
+        <v>-0.5365653892047098</v>
       </c>
     </row>
     <row r="196">
@@ -9854,28 +9872,28 @@
         <v>206</v>
       </c>
       <c r="B196" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C196" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D196" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E196" t="n">
-        <v>10.399118335319754</v>
+        <v>24.980002840282374</v>
       </c>
       <c r="F196" t="n">
-        <v>-0.028889844512144047</v>
+        <v>-0.11002266620631534</v>
       </c>
       <c r="G196" t="n">
-        <v>0.7774191876015129</v>
+        <v>0.8470491731489119</v>
       </c>
       <c r="H196" t="n">
-        <v>0.6661287814022693</v>
+        <v>0.770573759723368</v>
       </c>
       <c r="I196" t="n">
-        <v>0.11828622127046647</v>
+        <v>0.07964725613006841</v>
       </c>
       <c r="J196" t="n">
         <v>4.0</v>
@@ -9884,10 +9902,10 @@
         <v>1.0</v>
       </c>
       <c r="L196" t="n">
-        <v>6.972879337269914</v>
+        <v>2.5459998821347294</v>
       </c>
       <c r="M196" t="n">
-        <v>-7.945758674539828</v>
+        <v>0.9080002357305412</v>
       </c>
     </row>
     <row r="197">
@@ -9895,40 +9913,40 @@
         <v>207</v>
       </c>
       <c r="B197" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C197" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D197" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E197" t="n">
-        <v>0.003943875927768244</v>
+        <v>10.485914294482063</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.15960700804275174</v>
+        <v>-0.02453302638083764</v>
       </c>
       <c r="G197" t="n">
-        <v>0.8786721167009857</v>
+        <v>0.6717020077722912</v>
       </c>
       <c r="H197" t="n">
-        <v>0.8382294889346475</v>
+        <v>0.5075530116584368</v>
       </c>
       <c r="I197" t="n">
-        <v>0.018635110386925405</v>
+        <v>0.18042571552525435</v>
       </c>
       <c r="J197" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K197" t="n">
         <v>1.0</v>
       </c>
       <c r="L197" t="n">
-        <v>2.3278221246754742</v>
+        <v>6.557166225741472</v>
       </c>
       <c r="M197" t="n">
-        <v>1.3443557506490516</v>
+        <v>-7.1143324514829445</v>
       </c>
     </row>
     <row r="198">
@@ -9936,40 +9954,40 @@
         <v>208</v>
       </c>
       <c r="B198" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C198" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D198" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E198" t="n">
-        <v>0.012127327024227589</v>
+        <v>10.399118335319754</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.10447340184269754</v>
+        <v>-0.028889844512144047</v>
       </c>
       <c r="G198" t="n">
-        <v>0.6298294790064538</v>
+        <v>0.7774191876015129</v>
       </c>
       <c r="H198" t="n">
-        <v>0.5064393053419385</v>
+        <v>0.6661287814022693</v>
       </c>
       <c r="I198" t="n">
-        <v>0.10899787231131675</v>
+        <v>0.11828622127046647</v>
       </c>
       <c r="J198" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K198" t="n">
         <v>1.0</v>
       </c>
       <c r="L198" t="n">
-        <v>0.8256580342744801</v>
+        <v>6.972879337269914</v>
       </c>
       <c r="M198" t="n">
-        <v>4.34868393145104</v>
+        <v>-7.945758674539828</v>
       </c>
     </row>
     <row r="199">
@@ -9977,28 +9995,28 @@
         <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D199" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E199" t="n">
-        <v>0.02474118010603236</v>
+        <v>0.003943875927768244</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.13669183082644953</v>
+        <v>-0.15960700804275174</v>
       </c>
       <c r="G199" t="n">
-        <v>0.8884962941136718</v>
+        <v>0.8786721167009857</v>
       </c>
       <c r="H199" t="n">
-        <v>0.8513283921515624</v>
+        <v>0.8382294889346475</v>
       </c>
       <c r="I199" t="n">
-        <v>0.016365056110684617</v>
+        <v>0.018635110386925405</v>
       </c>
       <c r="J199" t="n">
         <v>5.0</v>
@@ -10007,10 +10025,10 @@
         <v>1.0</v>
       </c>
       <c r="L199" t="n">
-        <v>3.341643935207868</v>
+        <v>2.3278221246754742</v>
       </c>
       <c r="M199" t="n">
-        <v>-0.6832878704157359</v>
+        <v>1.3443557506490516</v>
       </c>
     </row>
     <row r="200">
@@ -10018,28 +10036,28 @@
         <v>210</v>
       </c>
       <c r="B200" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C200" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D200" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0025471894383417397</v>
+        <v>0.012127327024227589</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.041382487247696845</v>
+        <v>-0.10447340184269754</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9397987721103763</v>
+        <v>0.6298294790064538</v>
       </c>
       <c r="H200" t="n">
-        <v>0.9197316961471684</v>
+        <v>0.5064393053419385</v>
       </c>
       <c r="I200" t="n">
-        <v>0.0063860004771452315</v>
+        <v>0.10899787231131675</v>
       </c>
       <c r="J200" t="n">
         <v>5.0</v>
@@ -10048,10 +10066,10 @@
         <v>1.0</v>
       </c>
       <c r="L200" t="n">
-        <v>10.99725090947105</v>
+        <v>0.8256580342744801</v>
       </c>
       <c r="M200" t="n">
-        <v>-15.994501818942101</v>
+        <v>4.34868393145104</v>
       </c>
     </row>
     <row r="201">
@@ -10059,28 +10077,28 @@
         <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C201" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D201" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E201" t="n">
-        <v>0.013408808402434585</v>
+        <v>0.02474118010603236</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.1680940052936709</v>
+        <v>-0.13669183082644953</v>
       </c>
       <c r="G201" t="n">
-        <v>0.9132673920826254</v>
+        <v>0.8884962941136718</v>
       </c>
       <c r="H201" t="n">
-        <v>0.8843565227768339</v>
+        <v>0.8513283921515624</v>
       </c>
       <c r="I201" t="n">
-        <v>0.011136796563649107</v>
+        <v>0.016365056110684617</v>
       </c>
       <c r="J201" t="n">
         <v>5.0</v>
@@ -10089,10 +10107,10 @@
         <v>1.0</v>
       </c>
       <c r="L201" t="n">
-        <v>3.0044873204298477</v>
+        <v>3.341643935207868</v>
       </c>
       <c r="M201" t="n">
-        <v>-0.008974640859695349</v>
+        <v>-0.6832878704157359</v>
       </c>
     </row>
     <row r="202">
@@ -10100,28 +10118,28 @@
         <v>212</v>
       </c>
       <c r="B202" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C202" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D202" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E202" t="n">
-        <v>0.020223343208727155</v>
+        <v>0.0025471894383417397</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.17327809764409496</v>
+        <v>-0.041382487247696845</v>
       </c>
       <c r="G202" t="n">
-        <v>0.8322578100488024</v>
+        <v>0.9397987721103763</v>
       </c>
       <c r="H202" t="n">
-        <v>0.7763437467317366</v>
+        <v>0.9197316961471684</v>
       </c>
       <c r="I202" t="n">
-        <v>0.030773091082499003</v>
+        <v>0.0063860004771452315</v>
       </c>
       <c r="J202" t="n">
         <v>5.0</v>
@@ -10130,10 +10148,10 @@
         <v>1.0</v>
       </c>
       <c r="L202" t="n">
-        <v>0.9714033069994243</v>
+        <v>10.99725090947105</v>
       </c>
       <c r="M202" t="n">
-        <v>4.057193386001151</v>
+        <v>-15.994501818942101</v>
       </c>
     </row>
     <row r="203">
@@ -10141,40 +10159,40 @@
         <v>213</v>
       </c>
       <c r="B203" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C203" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D203" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E203" t="n">
-        <v>92.07999999999984</v>
+        <v>0.013408808402434585</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.19694397167878178</v>
+        <v>-0.1680940052936709</v>
       </c>
       <c r="G203" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I203" t="e">
-        <v>#N/A</v>
+        <v>0.9132673920826254</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.8843565227768339</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.011136796563649107</v>
       </c>
       <c r="J203" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K203" t="n">
         <v>1.0</v>
       </c>
-      <c r="L203" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M203" t="e">
-        <v>#DIV/0!</v>
+      <c r="L203" t="n">
+        <v>3.0044873204298477</v>
+      </c>
+      <c r="M203" t="n">
+        <v>-0.008974640859695349</v>
       </c>
     </row>
     <row r="204">
@@ -10182,40 +10200,40 @@
         <v>214</v>
       </c>
       <c r="B204" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C204" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D204" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E204" t="n">
-        <v>14.169999999999991</v>
+        <v>0.020223343208727155</v>
       </c>
       <c r="F204" t="n">
-        <v>-0.12118679350058877</v>
+        <v>-0.17327809764409496</v>
       </c>
       <c r="G204" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H204" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I204" t="e">
-        <v>#N/A</v>
+        <v>0.8322578100488024</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.7763437467317366</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.030773091082499003</v>
       </c>
       <c r="J204" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K204" t="n">
         <v>1.0</v>
       </c>
-      <c r="L204" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M204" t="e">
-        <v>#DIV/0!</v>
+      <c r="L204" t="n">
+        <v>0.9714033069994243</v>
+      </c>
+      <c r="M204" t="n">
+        <v>4.057193386001151</v>
       </c>
     </row>
     <row r="205">
@@ -10223,19 +10241,19 @@
         <v>215</v>
       </c>
       <c r="B205" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C205" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D205" t="s">
-        <v>379</v>
+        <v>555</v>
       </c>
       <c r="E205" t="n">
-        <v>106.24999999999983</v>
+        <v>92.07999999999984</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.18090199048346634</v>
+        <v>-0.19694397167878178</v>
       </c>
       <c r="G205" t="n">
         <v>1.0</v>
@@ -10264,40 +10282,40 @@
         <v>216</v>
       </c>
       <c r="B206" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C206" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D206" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E206" t="n">
-        <v>70.97420597707183</v>
+        <v>14.169999999999991</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.28597069662525176</v>
+        <v>-0.12118679350058877</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9073535137319774</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0.8147070274639547</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0.19689775709331162</v>
+        <v>1.0</v>
+      </c>
+      <c r="H206" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I206" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J206" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K206" t="n">
         <v>1.0</v>
       </c>
-      <c r="L206" t="n">
-        <v>0.7608514878638889</v>
-      </c>
-      <c r="M206" t="n">
-        <v>4.478297024272222</v>
+      <c r="L206" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M206" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="207">
@@ -10305,40 +10323,40 @@
         <v>217</v>
       </c>
       <c r="B207" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C207" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D207" t="s">
-        <v>552</v>
+        <v>383</v>
       </c>
       <c r="E207" t="n">
-        <v>28.36029164260168</v>
+        <v>106.24999999999983</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.3418558372604999</v>
+        <v>-0.18090199048346634</v>
       </c>
       <c r="G207" t="n">
-        <v>0.7895357526555645</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0.579071505311129</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0.3034152014665381</v>
+        <v>1.0</v>
+      </c>
+      <c r="H207" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I207" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J207" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K207" t="n">
         <v>1.0</v>
       </c>
-      <c r="L207" t="n">
-        <v>-1.2140655071435875</v>
-      </c>
-      <c r="M207" t="n">
-        <v>8.428131014287175</v>
+      <c r="L207" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M207" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="208">
@@ -10346,28 +10364,28 @@
         <v>218</v>
       </c>
       <c r="B208" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C208" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D208" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E208" t="n">
-        <v>2.5090816243016265</v>
+        <v>70.97420597707183</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.3030167015416232</v>
+        <v>-0.28597069662525176</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9451844328753155</v>
+        <v>0.9073535137319774</v>
       </c>
       <c r="H208" t="n">
-        <v>0.890368865750631</v>
+        <v>0.8147070274639547</v>
       </c>
       <c r="I208" t="n">
-        <v>0.15044647203179962</v>
+        <v>0.19689775709331162</v>
       </c>
       <c r="J208" t="n">
         <v>3.0</v>
@@ -10376,10 +10394,10 @@
         <v>1.0</v>
       </c>
       <c r="L208" t="n">
-        <v>1.435652865403076</v>
+        <v>0.7608514878638889</v>
       </c>
       <c r="M208" t="n">
-        <v>3.128694269193848</v>
+        <v>4.478297024272222</v>
       </c>
     </row>
     <row r="209">
@@ -10387,28 +10405,28 @@
         <v>219</v>
       </c>
       <c r="B209" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C209" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D209" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E209" t="n">
-        <v>15.343003298320546</v>
+        <v>28.36029164260168</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.4061360411329407</v>
+        <v>-0.3418558372604999</v>
       </c>
       <c r="G209" t="n">
-        <v>0.8787121387922495</v>
+        <v>0.7895357526555645</v>
       </c>
       <c r="H209" t="n">
-        <v>0.757424277584499</v>
+        <v>0.579071505311129</v>
       </c>
       <c r="I209" t="n">
-        <v>0.22645749416773225</v>
+        <v>0.3034152014665381</v>
       </c>
       <c r="J209" t="n">
         <v>3.0</v>
@@ -10417,10 +10435,10 @@
         <v>1.0</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.743720749071445</v>
+        <v>-1.2140655071435875</v>
       </c>
       <c r="M209" t="n">
-        <v>7.48744149814289</v>
+        <v>8.428131014287175</v>
       </c>
     </row>
     <row r="210">
@@ -10428,28 +10446,28 @@
         <v>220</v>
       </c>
       <c r="B210" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C210" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D210" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E210" t="n">
-        <v>18.843027524780805</v>
+        <v>2.5090816243016265</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.23654847545347005</v>
+        <v>-0.3030167015416232</v>
       </c>
       <c r="G210" t="n">
-        <v>0.9817713265084238</v>
+        <v>0.9451844328753155</v>
       </c>
       <c r="H210" t="n">
-        <v>0.9635426530168476</v>
+        <v>0.890368865750631</v>
       </c>
       <c r="I210" t="n">
-        <v>0.08621562878834783</v>
+        <v>0.15044647203179962</v>
       </c>
       <c r="J210" t="n">
         <v>3.0</v>
@@ -10458,10 +10476,10 @@
         <v>1.0</v>
       </c>
       <c r="L210" t="n">
-        <v>3.886992285247592</v>
+        <v>1.435652865403076</v>
       </c>
       <c r="M210" t="n">
-        <v>-1.773984570495184</v>
+        <v>3.128694269193848</v>
       </c>
     </row>
     <row r="211">
@@ -10469,28 +10487,28 @@
         <v>221</v>
       </c>
       <c r="B211" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C211" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D211" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E211" t="n">
-        <v>7.73524177520028</v>
+        <v>15.343003298320546</v>
       </c>
       <c r="F211" t="n">
-        <v>-0.32651945697830476</v>
+        <v>-0.4061360411329407</v>
       </c>
       <c r="G211" t="n">
-        <v>0.8248605078422573</v>
+        <v>0.8787121387922495</v>
       </c>
       <c r="H211" t="n">
-        <v>0.6497210156845146</v>
+        <v>0.757424277584499</v>
       </c>
       <c r="I211" t="n">
-        <v>0.27488571692347485</v>
+        <v>0.22645749416773225</v>
       </c>
       <c r="J211" t="n">
         <v>3.0</v>
@@ -10499,10 +10517,10 @@
         <v>1.0</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.7351134505517141</v>
+        <v>-0.743720749071445</v>
       </c>
       <c r="M211" t="n">
-        <v>7.470226901103429</v>
+        <v>7.48744149814289</v>
       </c>
     </row>
     <row r="212">
@@ -10510,28 +10528,28 @@
         <v>222</v>
       </c>
       <c r="B212" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C212" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D212" t="s">
-        <v>379</v>
+        <v>561</v>
       </c>
       <c r="E212" t="n">
-        <v>145.08336263290028</v>
+        <v>18.843027524780805</v>
       </c>
       <c r="F212" t="n">
-        <v>-0.3035077748506844</v>
+        <v>-0.23654847545347005</v>
       </c>
       <c r="G212" t="n">
-        <v>0.8909199055784</v>
+        <v>0.9817713265084238</v>
       </c>
       <c r="H212" t="n">
-        <v>0.7818398111567999</v>
+        <v>0.9635426530168476</v>
       </c>
       <c r="I212" t="n">
-        <v>0.2142814622094641</v>
+        <v>0.08621562878834783</v>
       </c>
       <c r="J212" t="n">
         <v>3.0</v>
@@ -10540,10 +10558,10 @@
         <v>1.0</v>
       </c>
       <c r="L212" t="n">
-        <v>0.3099443419908713</v>
+        <v>3.886992285247592</v>
       </c>
       <c r="M212" t="n">
-        <v>5.380111316018257</v>
+        <v>-1.773984570495184</v>
       </c>
     </row>
     <row r="213">
@@ -10551,40 +10569,40 @@
         <v>223</v>
       </c>
       <c r="B213" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C213" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D213" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E213" t="n">
-        <v>228.88715840162416</v>
+        <v>7.73524177520028</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.18459804339153407</v>
+        <v>-0.32651945697830476</v>
       </c>
       <c r="G213" t="n">
-        <v>0.28777476529363266</v>
+        <v>0.8248605078422573</v>
       </c>
       <c r="H213" t="n">
-        <v>0.1453297183523592</v>
+        <v>0.6497210156845146</v>
       </c>
       <c r="I213" t="n">
-        <v>0.21446975684207245</v>
+        <v>0.27488571692347485</v>
       </c>
       <c r="J213" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="K213" t="n">
         <v>1.0</v>
       </c>
       <c r="L213" t="n">
-        <v>-10.981364692925546</v>
+        <v>-0.7351134505517141</v>
       </c>
       <c r="M213" t="n">
-        <v>27.96272938585109</v>
+        <v>7.470226901103429</v>
       </c>
     </row>
     <row r="214">
@@ -10592,40 +10610,40 @@
         <v>224</v>
       </c>
       <c r="B214" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C214" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D214" t="s">
-        <v>558</v>
+        <v>383</v>
       </c>
       <c r="E214" t="n">
-        <v>33.76375356346621</v>
+        <v>145.08336263290028</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.08153082222767197</v>
+        <v>-0.3035077748506844</v>
       </c>
       <c r="G214" t="n">
-        <v>0.7907073571322186</v>
+        <v>0.8909199055784</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7488488285586623</v>
+        <v>0.7818398111567999</v>
       </c>
       <c r="I214" t="n">
-        <v>0.007385166618415629</v>
+        <v>0.2142814622094641</v>
       </c>
       <c r="J214" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="K214" t="n">
         <v>1.0</v>
       </c>
       <c r="L214" t="n">
-        <v>2.5629693391379798</v>
+        <v>0.3099443419908713</v>
       </c>
       <c r="M214" t="n">
-        <v>0.8740613217240405</v>
+        <v>5.380111316018257</v>
       </c>
     </row>
     <row r="215">
@@ -10633,28 +10651,28 @@
         <v>225</v>
       </c>
       <c r="B215" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C215" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D215" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E215" t="n">
-        <v>50.200091939110635</v>
+        <v>228.88715840162416</v>
       </c>
       <c r="F215" t="n">
-        <v>-0.09412354452590412</v>
+        <v>-0.18459804339153407</v>
       </c>
       <c r="G215" t="n">
-        <v>0.6084412764712464</v>
+        <v>0.28777476529363266</v>
       </c>
       <c r="H215" t="n">
-        <v>0.5301295317654957</v>
+        <v>0.1453297183523592</v>
       </c>
       <c r="I215" t="n">
-        <v>0.038564175862963616</v>
+        <v>0.21446975684207245</v>
       </c>
       <c r="J215" t="n">
         <v>7.0</v>
@@ -10663,10 +10681,10 @@
         <v>1.0</v>
       </c>
       <c r="L215" t="n">
-        <v>-1.5519237101187309</v>
+        <v>-10.981364692925546</v>
       </c>
       <c r="M215" t="n">
-        <v>9.10384742023746</v>
+        <v>27.96272938585109</v>
       </c>
     </row>
     <row r="216">
@@ -10674,28 +10692,28 @@
         <v>226</v>
       </c>
       <c r="B216" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C216" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D216" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E216" t="n">
-        <v>56.86220031381166</v>
+        <v>33.76375356346621</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.08980497485951631</v>
+        <v>-0.08153082222767197</v>
       </c>
       <c r="G216" t="n">
-        <v>0.8651987421127425</v>
+        <v>0.7907073571322186</v>
       </c>
       <c r="H216" t="n">
-        <v>0.838238490535291</v>
+        <v>0.7488488285586623</v>
       </c>
       <c r="I216" t="n">
-        <v>0.002383745004990648</v>
+        <v>0.007385166618415629</v>
       </c>
       <c r="J216" t="n">
         <v>7.0</v>
@@ -10704,10 +10722,10 @@
         <v>1.0</v>
       </c>
       <c r="L216" t="n">
-        <v>3.7412260668350883</v>
+        <v>2.5629693391379798</v>
       </c>
       <c r="M216" t="n">
-        <v>-1.4824521336701766</v>
+        <v>0.8740613217240405</v>
       </c>
     </row>
     <row r="217">
@@ -10715,28 +10733,28 @@
         <v>227</v>
       </c>
       <c r="B217" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C217" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D217" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E217" t="n">
-        <v>29.47477609697982</v>
+        <v>50.200091939110635</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.05003983110643359</v>
+        <v>-0.09412354452590412</v>
       </c>
       <c r="G217" t="n">
-        <v>0.6602944625724292</v>
+        <v>0.6084412764712464</v>
       </c>
       <c r="H217" t="n">
-        <v>0.5923533550869151</v>
+        <v>0.5301295317654957</v>
       </c>
       <c r="I217" t="n">
-        <v>0.026327361173346456</v>
+        <v>0.038564175862963616</v>
       </c>
       <c r="J217" t="n">
         <v>7.0</v>
@@ -10745,10 +10763,10 @@
         <v>1.0</v>
       </c>
       <c r="L217" t="n">
-        <v>3.6540450220346576</v>
+        <v>-1.5519237101187309</v>
       </c>
       <c r="M217" t="n">
-        <v>-1.3080900440693153</v>
+        <v>9.10384742023746</v>
       </c>
     </row>
     <row r="218">
@@ -10756,28 +10774,28 @@
         <v>228</v>
       </c>
       <c r="B218" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C218" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D218" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E218" t="n">
-        <v>21.860067240782804</v>
+        <v>56.86220031381166</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.06814016270231056</v>
+        <v>-0.08980497485951631</v>
       </c>
       <c r="G218" t="n">
-        <v>0.5675890783992925</v>
+        <v>0.8651987421127425</v>
       </c>
       <c r="H218" t="n">
-        <v>0.4811068940791511</v>
+        <v>0.838238490535291</v>
       </c>
       <c r="I218" t="n">
-        <v>0.0505328977652345</v>
+        <v>0.002383745004990648</v>
       </c>
       <c r="J218" t="n">
         <v>7.0</v>
@@ -10786,10 +10804,10 @@
         <v>1.0</v>
       </c>
       <c r="L218" t="n">
-        <v>0.118763852070628</v>
+        <v>3.7412260668350883</v>
       </c>
       <c r="M218" t="n">
-        <v>5.762472295858744</v>
+        <v>-1.4824521336701766</v>
       </c>
     </row>
     <row r="219">
@@ -10797,28 +10815,28 @@
         <v>229</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C219" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D219" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E219" t="n">
-        <v>14.349243301248574</v>
+        <v>29.47477609697982</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.050529765692595006</v>
+        <v>-0.05003983110643359</v>
       </c>
       <c r="G219" t="n">
-        <v>0.5780945373910077</v>
+        <v>0.6602944625724292</v>
       </c>
       <c r="H219" t="n">
-        <v>0.4937134448692092</v>
+        <v>0.5923533550869151</v>
       </c>
       <c r="I219" t="n">
-        <v>0.04724343735691883</v>
+        <v>0.026327361173346456</v>
       </c>
       <c r="J219" t="n">
         <v>7.0</v>
@@ -10827,10 +10845,10 @@
         <v>1.0</v>
       </c>
       <c r="L219" t="n">
-        <v>2.3620651349161568</v>
+        <v>3.6540450220346576</v>
       </c>
       <c r="M219" t="n">
-        <v>1.2758697301676865</v>
+        <v>-1.3080900440693153</v>
       </c>
     </row>
     <row r="220">
@@ -10838,28 +10856,28 @@
         <v>230</v>
       </c>
       <c r="B220" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C220" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D220" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E220" t="n">
-        <v>207.43750748893387</v>
+        <v>21.860067240782804</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.07658445102875094</v>
+        <v>-0.06814016270231056</v>
       </c>
       <c r="G220" t="n">
-        <v>0.8023436925204496</v>
+        <v>0.5675890783992925</v>
       </c>
       <c r="H220" t="n">
-        <v>0.7628124310245394</v>
+        <v>0.4811068940791511</v>
       </c>
       <c r="I220" t="n">
-        <v>0.006369221840170494</v>
+        <v>0.0505328977652345</v>
       </c>
       <c r="J220" t="n">
         <v>7.0</v>
@@ -10868,10 +10886,10 @@
         <v>1.0</v>
       </c>
       <c r="L220" t="n">
-        <v>3.252423979524033</v>
+        <v>0.118763852070628</v>
       </c>
       <c r="M220" t="n">
-        <v>-0.5048479590480657</v>
+        <v>5.762472295858744</v>
       </c>
     </row>
     <row r="221">
@@ -10879,28 +10897,28 @@
         <v>231</v>
       </c>
       <c r="B221" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C221" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D221" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E221" t="n">
-        <v>33.76375356346621</v>
+        <v>14.349243301248574</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.08153082222767197</v>
+        <v>-0.050529765692595006</v>
       </c>
       <c r="G221" t="n">
-        <v>0.7907073571322186</v>
+        <v>0.5780945373910077</v>
       </c>
       <c r="H221" t="n">
-        <v>0.7488488285586623</v>
+        <v>0.4937134448692092</v>
       </c>
       <c r="I221" t="n">
-        <v>0.007385166618415629</v>
+        <v>0.04724343735691883</v>
       </c>
       <c r="J221" t="n">
         <v>7.0</v>
@@ -10909,10 +10927,10 @@
         <v>1.0</v>
       </c>
       <c r="L221" t="n">
-        <v>2.5629693391379798</v>
+        <v>2.3620651349161568</v>
       </c>
       <c r="M221" t="n">
-        <v>0.8740613217240405</v>
+        <v>1.2758697301676865</v>
       </c>
     </row>
     <row r="222">
@@ -10920,28 +10938,28 @@
         <v>232</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C222" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D222" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E222" t="n">
-        <v>50.200091939110635</v>
+        <v>207.43750748893387</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.09412354452590412</v>
+        <v>-0.07658445102875094</v>
       </c>
       <c r="G222" t="n">
-        <v>0.6084412764712464</v>
+        <v>0.8023436925204496</v>
       </c>
       <c r="H222" t="n">
-        <v>0.5301295317654957</v>
+        <v>0.7628124310245394</v>
       </c>
       <c r="I222" t="n">
-        <v>0.038564175862963616</v>
+        <v>0.006369221840170494</v>
       </c>
       <c r="J222" t="n">
         <v>7.0</v>
@@ -10950,10 +10968,10 @@
         <v>1.0</v>
       </c>
       <c r="L222" t="n">
-        <v>-1.5519237101187309</v>
+        <v>3.252423979524033</v>
       </c>
       <c r="M222" t="n">
-        <v>9.10384742023746</v>
+        <v>-0.5048479590480657</v>
       </c>
     </row>
     <row r="223">
@@ -10961,28 +10979,28 @@
         <v>233</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C223" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D223" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E223" t="n">
-        <v>56.86220031381166</v>
+        <v>33.76375356346621</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.08980497485951631</v>
+        <v>-0.08153082222767197</v>
       </c>
       <c r="G223" t="n">
-        <v>0.8651987421127425</v>
+        <v>0.7907073571322186</v>
       </c>
       <c r="H223" t="n">
-        <v>0.838238490535291</v>
+        <v>0.7488488285586623</v>
       </c>
       <c r="I223" t="n">
-        <v>0.002383745004990648</v>
+        <v>0.007385166618415629</v>
       </c>
       <c r="J223" t="n">
         <v>7.0</v>
@@ -10991,10 +11009,10 @@
         <v>1.0</v>
       </c>
       <c r="L223" t="n">
-        <v>3.7412260668350883</v>
+        <v>2.5629693391379798</v>
       </c>
       <c r="M223" t="n">
-        <v>-1.4824521336701766</v>
+        <v>0.8740613217240405</v>
       </c>
     </row>
     <row r="224">
@@ -11002,28 +11020,28 @@
         <v>234</v>
       </c>
       <c r="B224" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C224" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D224" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E224" t="n">
-        <v>29.47477609697982</v>
+        <v>50.200091939110635</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.05003983110643359</v>
+        <v>-0.09412354452590412</v>
       </c>
       <c r="G224" t="n">
-        <v>0.6602944625724292</v>
+        <v>0.6084412764712464</v>
       </c>
       <c r="H224" t="n">
-        <v>0.5923533550869151</v>
+        <v>0.5301295317654957</v>
       </c>
       <c r="I224" t="n">
-        <v>0.026327361173346456</v>
+        <v>0.038564175862963616</v>
       </c>
       <c r="J224" t="n">
         <v>7.0</v>
@@ -11032,10 +11050,10 @@
         <v>1.0</v>
       </c>
       <c r="L224" t="n">
-        <v>3.6540450220346576</v>
+        <v>-1.5519237101187309</v>
       </c>
       <c r="M224" t="n">
-        <v>-1.3080900440693153</v>
+        <v>9.10384742023746</v>
       </c>
     </row>
     <row r="225">
@@ -11043,28 +11061,28 @@
         <v>235</v>
       </c>
       <c r="B225" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D225" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E225" t="n">
-        <v>21.860067240782804</v>
+        <v>56.86220031381166</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.06814016270231056</v>
+        <v>-0.08980497485951631</v>
       </c>
       <c r="G225" t="n">
-        <v>0.5675890783992925</v>
+        <v>0.8651987421127425</v>
       </c>
       <c r="H225" t="n">
-        <v>0.4811068940791511</v>
+        <v>0.838238490535291</v>
       </c>
       <c r="I225" t="n">
-        <v>0.0505328977652345</v>
+        <v>0.002383745004990648</v>
       </c>
       <c r="J225" t="n">
         <v>7.0</v>
@@ -11073,10 +11091,10 @@
         <v>1.0</v>
       </c>
       <c r="L225" t="n">
-        <v>0.118763852070628</v>
+        <v>3.7412260668350883</v>
       </c>
       <c r="M225" t="n">
-        <v>5.762472295858744</v>
+        <v>-1.4824521336701766</v>
       </c>
     </row>
     <row r="226">
@@ -11084,28 +11102,28 @@
         <v>236</v>
       </c>
       <c r="B226" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C226" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D226" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E226" t="n">
-        <v>14.349243301248574</v>
+        <v>29.47477609697982</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.050529765692595006</v>
+        <v>-0.05003983110643359</v>
       </c>
       <c r="G226" t="n">
-        <v>0.5780945373910077</v>
+        <v>0.6602944625724292</v>
       </c>
       <c r="H226" t="n">
-        <v>0.4937134448692092</v>
+        <v>0.5923533550869151</v>
       </c>
       <c r="I226" t="n">
-        <v>0.04724343735691883</v>
+        <v>0.026327361173346456</v>
       </c>
       <c r="J226" t="n">
         <v>7.0</v>
@@ -11114,10 +11132,10 @@
         <v>1.0</v>
       </c>
       <c r="L226" t="n">
-        <v>2.3620651349161568</v>
+        <v>3.6540450220346576</v>
       </c>
       <c r="M226" t="n">
-        <v>1.2758697301676865</v>
+        <v>-1.3080900440693153</v>
       </c>
     </row>
     <row r="227">
@@ -11125,40 +11143,40 @@
         <v>237</v>
       </c>
       <c r="B227" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C227" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D227" t="s">
-        <v>379</v>
+        <v>575</v>
       </c>
       <c r="E227" t="n">
-        <v>131.04397351524213</v>
+        <v>21.860067240782804</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.08171964151294821</v>
+        <v>-0.06814016270231056</v>
       </c>
       <c r="G227" t="n">
-        <v>0.8695569565720944</v>
+        <v>0.5675890783992925</v>
       </c>
       <c r="H227" t="n">
-        <v>0.8369461957151181</v>
+        <v>0.4811068940791511</v>
       </c>
       <c r="I227" t="n">
-        <v>0.006680527433026571</v>
+        <v>0.0505328977652345</v>
       </c>
       <c r="J227" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K227" t="n">
         <v>1.0</v>
       </c>
       <c r="L227" t="n">
-        <v>4.834068319067822</v>
+        <v>0.118763852070628</v>
       </c>
       <c r="M227" t="n">
-        <v>-3.6681366381356444</v>
+        <v>5.762472295858744</v>
       </c>
     </row>
     <row r="228">
@@ -11166,40 +11184,40 @@
         <v>238</v>
       </c>
       <c r="B228" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C228" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D228" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="E228" t="n">
-        <v>255.96195572636736</v>
+        <v>14.349243301248574</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.03786787967277658</v>
+        <v>-0.050529765692595006</v>
       </c>
       <c r="G228" t="n">
-        <v>0.7120292565788728</v>
+        <v>0.5780945373910077</v>
       </c>
       <c r="H228" t="n">
-        <v>0.6800325073098588</v>
+        <v>0.4937134448692092</v>
       </c>
       <c r="I228" t="n">
-        <v>0.0010931891613815113</v>
+        <v>0.04724343735691883</v>
       </c>
       <c r="J228" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="K228" t="n">
         <v>1.0</v>
       </c>
       <c r="L228" t="n">
-        <v>0.6318258728360654</v>
+        <v>2.3620651349161568</v>
       </c>
       <c r="M228" t="n">
-        <v>4.736348254327869</v>
+        <v>1.2758697301676865</v>
       </c>
     </row>
     <row r="229">
@@ -11207,40 +11225,40 @@
         <v>239</v>
       </c>
       <c r="B229" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C229" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D229" t="s">
-        <v>572</v>
+        <v>383</v>
       </c>
       <c r="E229" t="n">
-        <v>42.76103651444836</v>
+        <v>131.04397351524213</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.021215485160620717</v>
+        <v>-0.08171964151294821</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1776312165540692</v>
+        <v>0.8695569565720944</v>
       </c>
       <c r="H229" t="n">
-        <v>0.08625690728229907</v>
+        <v>0.8369461957151181</v>
       </c>
       <c r="I229" t="n">
-        <v>0.1966944357671798</v>
+        <v>0.006680527433026571</v>
       </c>
       <c r="J229" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="K229" t="n">
         <v>1.0</v>
       </c>
       <c r="L229" t="n">
-        <v>-6.4026502384879995</v>
+        <v>4.834068319067822</v>
       </c>
       <c r="M229" t="n">
-        <v>18.805300476976</v>
+        <v>-3.6681366381356444</v>
       </c>
     </row>
     <row r="230">
@@ -11248,28 +11266,28 @@
         <v>240</v>
       </c>
       <c r="B230" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C230" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D230" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E230" t="n">
-        <v>104.93452630204737</v>
+        <v>255.96195572636736</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.11352749503965584</v>
+        <v>-0.03786787967277658</v>
       </c>
       <c r="G230" t="n">
-        <v>0.3925080078515198</v>
+        <v>0.7120292565788728</v>
       </c>
       <c r="H230" t="n">
-        <v>0.3250088976127997</v>
+        <v>0.6800325073098588</v>
       </c>
       <c r="I230" t="n">
-        <v>0.03915688786948436</v>
+        <v>0.0010931891613815113</v>
       </c>
       <c r="J230" t="n">
         <v>11.0</v>
@@ -11278,10 +11296,10 @@
         <v>1.0</v>
       </c>
       <c r="L230" t="n">
-        <v>-18.826765882816986</v>
+        <v>0.6318258728360654</v>
       </c>
       <c r="M230" t="n">
-        <v>43.65353176563397</v>
+        <v>4.736348254327869</v>
       </c>
     </row>
     <row r="231">
@@ -11289,40 +11307,40 @@
         <v>241</v>
       </c>
       <c r="B231" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C231" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D231" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E231" t="n">
-        <v>0.09142857142857143</v>
+        <v>42.76103651444836</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.08902092841634826</v>
+        <v>-0.021215485160620717</v>
       </c>
       <c r="G231" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H231" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I231" t="e">
-        <v>#N/A</v>
+        <v>0.1776312165540692</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.08625690728229907</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.1966944357671798</v>
       </c>
       <c r="J231" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="K231" t="n">
         <v>1.0</v>
       </c>
-      <c r="L231" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M231" t="e">
-        <v>#DIV/0!</v>
+      <c r="L231" t="n">
+        <v>-6.4026502384879995</v>
+      </c>
+      <c r="M231" t="n">
+        <v>18.805300476976</v>
       </c>
     </row>
     <row r="232">
@@ -11330,40 +11348,40 @@
         <v>242</v>
       </c>
       <c r="B232" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C232" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D232" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E232" t="n">
-        <v>0.27142857142857124</v>
+        <v>104.93452630204737</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.40132426810864513</v>
+        <v>-0.11352749503965584</v>
       </c>
       <c r="G232" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H232" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I232" t="e">
-        <v>#N/A</v>
+        <v>0.3925080078515198</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.3250088976127997</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.03915688786948436</v>
       </c>
       <c r="J232" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="K232" t="n">
         <v>1.0</v>
       </c>
-      <c r="L232" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M232" t="e">
-        <v>#DIV/0!</v>
+      <c r="L232" t="n">
+        <v>-18.826765882816986</v>
+      </c>
+      <c r="M232" t="n">
+        <v>43.65353176563397</v>
       </c>
     </row>
     <row r="233">
@@ -11371,19 +11389,19 @@
         <v>243</v>
       </c>
       <c r="B233" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C233" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D233" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E233" t="n">
-        <v>0.2814285714285708</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.507334537681475</v>
+        <v>-0.08902092841634826</v>
       </c>
       <c r="G233" t="n">
         <v>1.0</v>
@@ -11412,40 +11430,40 @@
         <v>244</v>
       </c>
       <c r="B234" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C234" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D234" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E234" t="n">
-        <v>48.42422222490933</v>
+        <v>0.27142857142857124</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.050355242440624726</v>
+        <v>-0.40132426810864513</v>
       </c>
       <c r="G234" t="n">
-        <v>0.8570888898806621</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0.8213611123508276</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0.008056139875864557</v>
+        <v>1.0</v>
+      </c>
+      <c r="H234" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I234" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J234" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="K234" t="n">
         <v>1.0</v>
       </c>
-      <c r="L234" t="n">
-        <v>0.4993152682088928</v>
-      </c>
-      <c r="M234" t="n">
-        <v>5.001369463582215</v>
+      <c r="L234" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M234" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="235">
@@ -11453,40 +11471,40 @@
         <v>245</v>
       </c>
       <c r="B235" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C235" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D235" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E235" t="n">
-        <v>42.41140517406836</v>
+        <v>0.2814285714285708</v>
       </c>
       <c r="F235" t="n">
-        <v>-0.012572894981195537</v>
+        <v>-0.507334537681475</v>
       </c>
       <c r="G235" t="n">
-        <v>0.32815382309273383</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0.16019227886591736</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0.2347203060041106</v>
+        <v>1.0</v>
+      </c>
+      <c r="H235" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I235" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J235" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="K235" t="n">
         <v>1.0</v>
       </c>
-      <c r="L235" t="n">
-        <v>1.3010746047318196</v>
-      </c>
-      <c r="M235" t="n">
-        <v>3.397850790536361</v>
+      <c r="L235" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M235" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="236">
@@ -11494,28 +11512,28 @@
         <v>246</v>
       </c>
       <c r="B236" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C236" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D236" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E236" t="n">
-        <v>40.92964248564695</v>
+        <v>48.42422222490933</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.02708657461885044</v>
+        <v>-0.050355242440624726</v>
       </c>
       <c r="G236" t="n">
-        <v>0.789069881078457</v>
+        <v>0.8570888898806621</v>
       </c>
       <c r="H236" t="n">
-        <v>0.7363373513480712</v>
+        <v>0.8213611123508276</v>
       </c>
       <c r="I236" t="n">
-        <v>0.018019748896282006</v>
+        <v>0.008056139875864557</v>
       </c>
       <c r="J236" t="n">
         <v>6.0</v>
@@ -11524,10 +11542,10 @@
         <v>1.0</v>
       </c>
       <c r="L236" t="n">
-        <v>2.803730023261955</v>
+        <v>0.4993152682088928</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3925399534760903</v>
+        <v>5.001369463582215</v>
       </c>
     </row>
     <row r="237">
@@ -11535,40 +11553,40 @@
         <v>247</v>
       </c>
       <c r="B237" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C237" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D237" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E237" t="n">
-        <v>14.307559996281716</v>
+        <v>42.41140517406836</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.18538156471598843</v>
+        <v>-0.012572894981195537</v>
       </c>
       <c r="G237" t="n">
-        <v>0.7818154269015798</v>
+        <v>0.32815382309273383</v>
       </c>
       <c r="H237" t="n">
-        <v>0.7619804657108143</v>
+        <v>0.16019227886591736</v>
       </c>
       <c r="I237" t="n">
-        <v>6.01775069132054E-5</v>
+        <v>0.2347203060041106</v>
       </c>
       <c r="J237" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="K237" t="n">
         <v>1.0</v>
       </c>
       <c r="L237" t="n">
-        <v>-6.636483308343882</v>
+        <v>1.3010746047318196</v>
       </c>
       <c r="M237" t="n">
-        <v>19.272966616687764</v>
+        <v>3.397850790536361</v>
       </c>
     </row>
     <row r="238">
@@ -11576,40 +11594,40 @@
         <v>248</v>
       </c>
       <c r="B238" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C238" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D238" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E238" t="n">
-        <v>11.54497467788077</v>
+        <v>40.92964248564695</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.14993217765930528</v>
+        <v>-0.02708657461885044</v>
       </c>
       <c r="G238" t="n">
-        <v>0.7102907366186058</v>
+        <v>0.789069881078457</v>
       </c>
       <c r="H238" t="n">
-        <v>0.6813198102804663</v>
+        <v>0.7363373513480712</v>
       </c>
       <c r="I238" t="n">
-        <v>5.772485475306648E-4</v>
+        <v>0.018019748896282006</v>
       </c>
       <c r="J238" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="K238" t="n">
         <v>1.0</v>
       </c>
       <c r="L238" t="n">
-        <v>-7.205909703573145</v>
+        <v>2.803730023261955</v>
       </c>
       <c r="M238" t="n">
-        <v>20.41181940714629</v>
+        <v>0.3925399534760903</v>
       </c>
     </row>
     <row r="239">
@@ -11617,40 +11635,40 @@
         <v>249</v>
       </c>
       <c r="B239" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C239" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D239" t="s">
-        <v>364</v>
+        <v>586</v>
       </c>
       <c r="E239" t="n">
-        <v>6.957540578856276</v>
+        <v>14.307559996281716</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.08765871163881132</v>
+        <v>-0.18538156471598843</v>
       </c>
       <c r="G239" t="n">
-        <v>0.9899023659894275</v>
+        <v>0.7818154269015798</v>
       </c>
       <c r="H239" t="n">
-        <v>0.979804731978855</v>
+        <v>0.7619804657108143</v>
       </c>
       <c r="I239" t="n">
-        <v>0.0640801542018708</v>
+        <v>6.01775069132054E-5</v>
       </c>
       <c r="J239" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="K239" t="n">
         <v>1.0</v>
       </c>
       <c r="L239" t="n">
-        <v>1.8366470600257747</v>
+        <v>-6.636483308343882</v>
       </c>
       <c r="M239" t="n">
-        <v>2.3267058799484506</v>
+        <v>19.272966616687764</v>
       </c>
     </row>
     <row r="240">
@@ -11658,40 +11676,40 @@
         <v>250</v>
       </c>
       <c r="B240" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C240" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D240" t="s">
-        <v>365</v>
+        <v>587</v>
       </c>
       <c r="E240" t="n">
-        <v>13.520382361663225</v>
+        <v>11.54497467788077</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.2604379302358681</v>
+        <v>-0.14993217765930528</v>
       </c>
       <c r="G240" t="n">
-        <v>0.5509096516358163</v>
+        <v>0.7102907366186058</v>
       </c>
       <c r="H240" t="n">
-        <v>0.4610915819629796</v>
+        <v>0.6813198102804663</v>
       </c>
       <c r="I240" t="n">
-        <v>0.05607339566794001</v>
+        <v>5.772485475306648E-4</v>
       </c>
       <c r="J240" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="K240" t="n">
         <v>1.0</v>
       </c>
       <c r="L240" t="n">
-        <v>-9.5036816619864</v>
+        <v>-7.205909703573145</v>
       </c>
       <c r="M240" t="n">
-        <v>25.0073633239728</v>
+        <v>20.41181940714629</v>
       </c>
     </row>
     <row r="241">
@@ -11699,28 +11717,28 @@
         <v>251</v>
       </c>
       <c r="B241" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C241" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D241" t="s">
-        <v>582</v>
+        <v>368</v>
       </c>
       <c r="E241" t="n">
-        <v>2.7311943770808282</v>
+        <v>6.957540578856276</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.5077173910946013</v>
+        <v>-0.08765871163881132</v>
       </c>
       <c r="G241" t="n">
-        <v>0.9479567358015404</v>
+        <v>0.9899023659894275</v>
       </c>
       <c r="H241" t="n">
-        <v>0.8959134716030808</v>
+        <v>0.979804731978855</v>
       </c>
       <c r="I241" t="n">
-        <v>0.14652219746582368</v>
+        <v>0.0640801542018708</v>
       </c>
       <c r="J241" t="n">
         <v>3.0</v>
@@ -11729,10 +11747,10 @@
         <v>1.0</v>
       </c>
       <c r="L241" t="n">
-        <v>2.7382232024908792</v>
+        <v>1.8366470600257747</v>
       </c>
       <c r="M241" t="n">
-        <v>0.5235535950182415</v>
+        <v>2.3267058799484506</v>
       </c>
     </row>
     <row r="242">
@@ -11740,40 +11758,40 @@
         <v>252</v>
       </c>
       <c r="B242" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C242" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D242" t="s">
-        <v>583</v>
+        <v>369</v>
       </c>
       <c r="E242" t="n">
-        <v>2.84583958941829</v>
+        <v>13.520382361663225</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.44183275227904095</v>
+        <v>-0.2604379302358681</v>
       </c>
       <c r="G242" t="n">
-        <v>0.9884589432866354</v>
+        <v>0.5509096516358163</v>
       </c>
       <c r="H242" t="n">
-        <v>0.9769178865732708</v>
+        <v>0.4610915819629796</v>
       </c>
       <c r="I242" t="n">
-        <v>0.06852386295002336</v>
+        <v>0.05607339566794001</v>
       </c>
       <c r="J242" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K242" t="n">
         <v>1.0</v>
       </c>
       <c r="L242" t="n">
-        <v>5.477208054938779</v>
+        <v>-9.5036816619864</v>
       </c>
       <c r="M242" t="n">
-        <v>-4.954416109877558</v>
+        <v>25.0073633239728</v>
       </c>
     </row>
     <row r="243">
@@ -11781,28 +11799,28 @@
         <v>253</v>
       </c>
       <c r="B243" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C243" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D243" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E243" t="n">
-        <v>9.125863555487458</v>
+        <v>2.7311943770808282</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.08696052403084938</v>
+        <v>-0.5077173910946013</v>
       </c>
       <c r="G243" t="n">
-        <v>0.9999976258433908</v>
+        <v>0.9479567358015404</v>
       </c>
       <c r="H243" t="n">
-        <v>0.9999952516867816</v>
+        <v>0.8959134716030808</v>
       </c>
       <c r="I243" t="n">
-        <v>9.809231328944746E-4</v>
+        <v>0.14652219746582368</v>
       </c>
       <c r="J243" t="n">
         <v>3.0</v>
@@ -11811,10 +11829,10 @@
         <v>1.0</v>
       </c>
       <c r="L243" t="n">
-        <v>15.649864025384582</v>
+        <v>2.7382232024908792</v>
       </c>
       <c r="M243" t="n">
-        <v>-25.299728050769165</v>
+        <v>0.5235535950182415</v>
       </c>
     </row>
     <row r="244">
@@ -11822,28 +11840,28 @@
         <v>254</v>
       </c>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C244" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D244" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E244" t="n">
-        <v>3.5643453149003506</v>
+        <v>2.84583958941829</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.013135041279007028</v>
+        <v>-0.44183275227904095</v>
       </c>
       <c r="G244" t="n">
-        <v>0.3047220524337317</v>
+        <v>0.9884589432866354</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.3905558951325365</v>
+        <v>0.9769178865732708</v>
       </c>
       <c r="I244" t="n">
-        <v>0.6277171846624519</v>
+        <v>0.06852386295002336</v>
       </c>
       <c r="J244" t="n">
         <v>3.0</v>
@@ -11852,10 +11870,10 @@
         <v>1.0</v>
       </c>
       <c r="L244" t="n">
-        <v>0.6567098038894629</v>
+        <v>5.477208054938779</v>
       </c>
       <c r="M244" t="n">
-        <v>4.6865803922210745</v>
+        <v>-4.954416109877558</v>
       </c>
     </row>
     <row r="245">
@@ -11863,40 +11881,40 @@
         <v>255</v>
       </c>
       <c r="B245" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C245" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D245" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E245" t="n">
-        <v>12.885519763473347</v>
+        <v>9.125863555487458</v>
       </c>
       <c r="F245" t="n">
-        <v>-0.3449094082127197</v>
+        <v>-0.08696052403084938</v>
       </c>
       <c r="G245" t="n">
-        <v>0.9786649997972544</v>
+        <v>0.9999976258433908</v>
       </c>
       <c r="H245" t="n">
-        <v>0.9751091664301301</v>
+        <v>0.9999952516867816</v>
       </c>
       <c r="I245" t="n">
-        <v>3.059380997338076E-6</v>
+        <v>9.809231328944746E-4</v>
       </c>
       <c r="J245" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="K245" t="n">
         <v>1.0</v>
       </c>
       <c r="L245" t="n">
-        <v>5.834729165401569</v>
+        <v>15.649864025384582</v>
       </c>
       <c r="M245" t="n">
-        <v>-5.669458330803138</v>
+        <v>-25.299728050769165</v>
       </c>
     </row>
     <row r="246">
@@ -11904,40 +11922,40 @@
         <v>256</v>
       </c>
       <c r="B246" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C246" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D246" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E246" t="n">
-        <v>13.521717228376732</v>
+        <v>3.5643453149003506</v>
       </c>
       <c r="F246" t="n">
-        <v>-0.173504017627368</v>
+        <v>-0.013135041279007028</v>
       </c>
       <c r="G246" t="n">
-        <v>0.9561436651967163</v>
+        <v>0.3047220524337317</v>
       </c>
       <c r="H246" t="n">
-        <v>0.9488342760628358</v>
+        <v>-0.3905558951325365</v>
       </c>
       <c r="I246" t="n">
-        <v>2.6805386474221625E-5</v>
+        <v>0.6277171846624519</v>
       </c>
       <c r="J246" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="K246" t="n">
         <v>1.0</v>
       </c>
       <c r="L246" t="n">
-        <v>8.3559716379534</v>
+        <v>0.6567098038894629</v>
       </c>
       <c r="M246" t="n">
-        <v>-10.711943275906801</v>
+        <v>4.6865803922210745</v>
       </c>
     </row>
     <row r="247">
@@ -11945,28 +11963,28 @@
         <v>257</v>
       </c>
       <c r="B247" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C247" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D247" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E247" t="n">
-        <v>10.60248007374395</v>
+        <v>12.885519763473347</v>
       </c>
       <c r="F247" t="n">
-        <v>-0.48891161601384114</v>
+        <v>-0.3449094082127197</v>
       </c>
       <c r="G247" t="n">
-        <v>0.9707094506049231</v>
+        <v>0.9786649997972544</v>
       </c>
       <c r="H247" t="n">
-        <v>0.9658276923724103</v>
+        <v>0.9751091664301301</v>
       </c>
       <c r="I247" t="n">
-        <v>7.940749176447572E-6</v>
+        <v>3.059380997338076E-6</v>
       </c>
       <c r="J247" t="n">
         <v>8.0</v>
@@ -11975,10 +11993,10 @@
         <v>1.0</v>
       </c>
       <c r="L247" t="n">
-        <v>1.7432169446237822</v>
+        <v>5.834729165401569</v>
       </c>
       <c r="M247" t="n">
-        <v>2.5135661107524356</v>
+        <v>-5.669458330803138</v>
       </c>
     </row>
     <row r="248">
@@ -11986,40 +12004,40 @@
         <v>258</v>
       </c>
       <c r="B248" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C248" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D248" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E248" t="n">
-        <v>577.7333322197995</v>
+        <v>13.521717228376732</v>
       </c>
       <c r="F248" t="n">
-        <v>-0.08590250396499664</v>
+        <v>-0.173504017627368</v>
       </c>
       <c r="G248" t="n">
-        <v>0.951161236841798</v>
+        <v>0.9561436651967163</v>
       </c>
       <c r="H248" t="n">
-        <v>0.9389515460522475</v>
+        <v>0.9488342760628358</v>
       </c>
       <c r="I248" t="n">
-        <v>9.094342589496245E-4</v>
+        <v>2.6805386474221625E-5</v>
       </c>
       <c r="J248" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K248" t="n">
         <v>1.0</v>
       </c>
       <c r="L248" t="n">
-        <v>6.015440273897756</v>
+        <v>8.3559716379534</v>
       </c>
       <c r="M248" t="n">
-        <v>-6.030880547795512</v>
+        <v>-10.711943275906801</v>
       </c>
     </row>
     <row r="249">
@@ -12027,40 +12045,40 @@
         <v>259</v>
       </c>
       <c r="B249" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C249" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D249" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E249" t="n">
-        <v>486.32236934416613</v>
+        <v>10.60248007374395</v>
       </c>
       <c r="F249" t="n">
-        <v>-0.10064784450603798</v>
+        <v>-0.48891161601384114</v>
       </c>
       <c r="G249" t="n">
-        <v>0.8556840214368792</v>
+        <v>0.9707094506049231</v>
       </c>
       <c r="H249" t="n">
-        <v>0.8196050267960989</v>
+        <v>0.9658276923724103</v>
       </c>
       <c r="I249" t="n">
-        <v>0.008219654934097261</v>
+        <v>7.940749176447572E-6</v>
       </c>
       <c r="J249" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K249" t="n">
         <v>1.0</v>
       </c>
       <c r="L249" t="n">
-        <v>1.4971618716374178</v>
+        <v>1.7432169446237822</v>
       </c>
       <c r="M249" t="n">
-        <v>3.0056762567251645</v>
+        <v>2.5135661107524356</v>
       </c>
     </row>
     <row r="250">
@@ -12068,28 +12086,28 @@
         <v>260</v>
       </c>
       <c r="B250" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C250" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D250" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E250" t="n">
-        <v>620.0158196030638</v>
+        <v>577.7333322197995</v>
       </c>
       <c r="F250" t="n">
-        <v>-0.06344311949777154</v>
+        <v>-0.08590250396499664</v>
       </c>
       <c r="G250" t="n">
-        <v>0.888993568680226</v>
+        <v>0.951161236841798</v>
       </c>
       <c r="H250" t="n">
-        <v>0.8612419608502826</v>
+        <v>0.9389515460522475</v>
       </c>
       <c r="I250" t="n">
-        <v>0.0048034304869341085</v>
+        <v>9.094342589496245E-4</v>
       </c>
       <c r="J250" t="n">
         <v>6.0</v>
@@ -12098,10 +12116,10 @@
         <v>1.0</v>
       </c>
       <c r="L250" t="n">
-        <v>5.167883433424617</v>
+        <v>6.015440273897756</v>
       </c>
       <c r="M250" t="n">
-        <v>-4.335766866849234</v>
+        <v>-6.030880547795512</v>
       </c>
     </row>
     <row r="251">
@@ -12109,28 +12127,28 @@
         <v>261</v>
       </c>
       <c r="B251" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C251" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D251" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E251" t="n">
-        <v>528.7110695956452</v>
+        <v>486.32236934416613</v>
       </c>
       <c r="F251" t="n">
-        <v>-0.05880696996178825</v>
+        <v>-0.10064784450603798</v>
       </c>
       <c r="G251" t="n">
-        <v>0.9893818754112228</v>
+        <v>0.8556840214368792</v>
       </c>
       <c r="H251" t="n">
-        <v>0.9867273442640285</v>
+        <v>0.8196050267960989</v>
       </c>
       <c r="I251" t="n">
-        <v>4.242975579671973E-5</v>
+        <v>0.008219654934097261</v>
       </c>
       <c r="J251" t="n">
         <v>6.0</v>
@@ -12139,10 +12157,10 @@
         <v>1.0</v>
       </c>
       <c r="L251" t="n">
-        <v>12.985231947710222</v>
+        <v>1.4971618716374178</v>
       </c>
       <c r="M251" t="n">
-        <v>-19.970463895420444</v>
+        <v>3.0056762567251645</v>
       </c>
     </row>
     <row r="252">
@@ -12150,28 +12168,28 @@
         <v>262</v>
       </c>
       <c r="B252" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C252" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D252" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E252" t="n">
-        <v>429.84508544145825</v>
+        <v>620.0158196030638</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.13939625882242224</v>
+        <v>-0.06344311949777154</v>
       </c>
       <c r="G252" t="n">
-        <v>0.9147654108659689</v>
+        <v>0.888993568680226</v>
       </c>
       <c r="H252" t="n">
-        <v>0.8934567635824611</v>
+        <v>0.8612419608502826</v>
       </c>
       <c r="I252" t="n">
-        <v>0.002805689612113149</v>
+        <v>0.0048034304869341085</v>
       </c>
       <c r="J252" t="n">
         <v>6.0</v>
@@ -12180,10 +12198,10 @@
         <v>1.0</v>
       </c>
       <c r="L252" t="n">
-        <v>1.323097348886201</v>
+        <v>5.167883433424617</v>
       </c>
       <c r="M252" t="n">
-        <v>3.353805302227598</v>
+        <v>-4.335766866849234</v>
       </c>
     </row>
     <row r="253">
@@ -12191,28 +12209,28 @@
         <v>263</v>
       </c>
       <c r="B253" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C253" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D253" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E253" t="n">
-        <v>509.92817527909114</v>
+        <v>528.7110695956452</v>
       </c>
       <c r="F253" t="n">
-        <v>-0.05235784796745974</v>
+        <v>-0.05880696996178825</v>
       </c>
       <c r="G253" t="n">
-        <v>0.9311902122557126</v>
+        <v>0.9893818754112228</v>
       </c>
       <c r="H253" t="n">
-        <v>0.9139877653196408</v>
+        <v>0.9867273442640285</v>
       </c>
       <c r="I253" t="n">
-        <v>0.0018179224646833775</v>
+        <v>4.242975579671973E-5</v>
       </c>
       <c r="J253" t="n">
         <v>6.0</v>
@@ -12221,10 +12239,10 @@
         <v>1.0</v>
       </c>
       <c r="L253" t="n">
-        <v>7.893982004933229</v>
+        <v>12.985231947710222</v>
       </c>
       <c r="M253" t="n">
-        <v>-9.787964009866458</v>
+        <v>-19.970463895420444</v>
       </c>
     </row>
     <row r="254">
@@ -12232,28 +12250,28 @@
         <v>264</v>
       </c>
       <c r="B254" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C254" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D254" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E254" t="n">
-        <v>4394.260834491113</v>
+        <v>429.84508544145825</v>
       </c>
       <c r="F254" t="n">
-        <v>-0.1869256593653628</v>
+        <v>-0.13939625882242224</v>
       </c>
       <c r="G254" t="n">
-        <v>0.9577366576067338</v>
+        <v>0.9147654108659689</v>
       </c>
       <c r="H254" t="n">
-        <v>0.9471708220084172</v>
+        <v>0.8934567635824611</v>
       </c>
       <c r="I254" t="n">
-        <v>6.79488439139505E-4</v>
+        <v>0.002805689612113149</v>
       </c>
       <c r="J254" t="n">
         <v>6.0</v>
@@ -12262,10 +12280,10 @@
         <v>1.0</v>
       </c>
       <c r="L254" t="n">
-        <v>1.8049326304055007</v>
+        <v>1.323097348886201</v>
       </c>
       <c r="M254" t="n">
-        <v>2.3901347391889987</v>
+        <v>3.353805302227598</v>
       </c>
     </row>
     <row r="255">
@@ -12273,28 +12291,28 @@
         <v>265</v>
       </c>
       <c r="B255" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C255" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D255" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E255" t="n">
-        <v>3750.13794569022</v>
+        <v>509.92817527909114</v>
       </c>
       <c r="F255" t="n">
-        <v>-0.18772977846645503</v>
+        <v>-0.05235784796745974</v>
       </c>
       <c r="G255" t="n">
-        <v>0.9600323529465906</v>
+        <v>0.9311902122557126</v>
       </c>
       <c r="H255" t="n">
-        <v>0.9500404411832383</v>
+        <v>0.9139877653196408</v>
       </c>
       <c r="I255" t="n">
-        <v>6.071947507809144E-4</v>
+        <v>0.0018179224646833775</v>
       </c>
       <c r="J255" t="n">
         <v>6.0</v>
@@ -12303,10 +12321,10 @@
         <v>1.0</v>
       </c>
       <c r="L255" t="n">
-        <v>1.9539089029718304</v>
+        <v>7.893982004933229</v>
       </c>
       <c r="M255" t="n">
-        <v>2.092182194056339</v>
+        <v>-9.787964009866458</v>
       </c>
     </row>
     <row r="256">
@@ -12314,28 +12332,28 @@
         <v>266</v>
       </c>
       <c r="B256" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C256" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D256" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E256" t="n">
-        <v>4608.287076412557</v>
+        <v>4394.260834491113</v>
       </c>
       <c r="F256" t="n">
-        <v>-0.12055339203148703</v>
+        <v>-0.1869256593653628</v>
       </c>
       <c r="G256" t="n">
-        <v>0.9158234360938423</v>
+        <v>0.9577366576067338</v>
       </c>
       <c r="H256" t="n">
-        <v>0.8947792951173029</v>
+        <v>0.9471708220084172</v>
       </c>
       <c r="I256" t="n">
-        <v>0.0027354326834158915</v>
+        <v>6.79488439139505E-4</v>
       </c>
       <c r="J256" t="n">
         <v>6.0</v>
@@ -12344,10 +12362,10 @@
         <v>1.0</v>
       </c>
       <c r="L256" t="n">
-        <v>2.2354050262334644</v>
+        <v>1.8049326304055007</v>
       </c>
       <c r="M256" t="n">
-        <v>1.5291899475330712</v>
+        <v>2.3901347391889987</v>
       </c>
     </row>
     <row r="257">
@@ -12355,39 +12373,121 @@
         <v>267</v>
       </c>
       <c r="B257" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C257" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D257" t="s">
-        <v>369</v>
+        <v>602</v>
       </c>
       <c r="E257" t="n">
+        <v>3750.13794569022</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-0.18772977846645503</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.9600323529465906</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.9500404411832383</v>
+      </c>
+      <c r="I257" t="n">
+        <v>6.071947507809144E-4</v>
+      </c>
+      <c r="J257" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1.9539089029718304</v>
+      </c>
+      <c r="M257" t="n">
+        <v>2.092182194056339</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>268</v>
+      </c>
+      <c r="B258" t="s">
+        <v>320</v>
+      </c>
+      <c r="C258" t="s">
+        <v>372</v>
+      </c>
+      <c r="D258" t="s">
+        <v>603</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4608.287076412557</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-0.12055339203148703</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.9158234360938423</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.8947792951173029</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.0027354326834158915</v>
+      </c>
+      <c r="J258" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2.2354050262334644</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1.5291899475330712</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>269</v>
+      </c>
+      <c r="B259" t="s">
+        <v>321</v>
+      </c>
+      <c r="C259" t="s">
+        <v>373</v>
+      </c>
+      <c r="D259" t="s">
+        <v>373</v>
+      </c>
+      <c r="E259" t="n">
         <v>69.4644960778641</v>
       </c>
-      <c r="F257" t="n">
+      <c r="F259" t="n">
         <v>-0.19733261844328598</v>
       </c>
-      <c r="G257" t="n">
+      <c r="G259" t="n">
         <v>0.9913417444837015</v>
       </c>
-      <c r="H257" t="n">
+      <c r="H259" t="n">
         <v>0.9870126167255522</v>
       </c>
-      <c r="I257" t="n">
+      <c r="I259" t="n">
         <v>0.004338539219428527</v>
       </c>
-      <c r="J257" t="n">
+      <c r="J259" t="n">
         <v>4.0</v>
       </c>
-      <c r="K257" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L257" t="n">
+      <c r="K259" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L259" t="n">
         <v>3.4127574614301497</v>
       </c>
-      <c r="M257" t="n">
+      <c r="M259" t="n">
         <v>-0.8255149228602994</v>
       </c>
     </row>
